--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1981798.149346177</v>
+        <v>1979004.29976147</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -686,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>10.67647943109962</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>12.25340582209087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.91167781799599</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13.91167781799599</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>13.91167781799599</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>12.25340582209087</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>13.91167781799599</v>
       </c>
     </row>
     <row r="4">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.79500702712463</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>49.79500702712463</v>
+        <v>29.96843011879469</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -938,10 +938,10 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>32.68636186295921</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,55 +993,55 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>12.84193026251983</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>31.01751192697151</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="J6" t="n">
-        <v>46.18894706358476</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>47.46550215303122</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="Y6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>81.30196747731264</v>
       </c>
       <c r="F8" t="n">
         <v>112.1126601249236</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>18.59473170946467</v>
@@ -1178,7 +1178,7 @@
         <v>15.61164031771685</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.35315165846211</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>64.54245901085116</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>9.256558775821446</v>
       </c>
       <c r="R9" t="n">
-        <v>82.09559288881302</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="V9" t="n">
-        <v>7.396679373398225</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>89.49227226221126</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.625377488803558</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>23.91492798859264</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.7936884216148</v>
+        <v>289.7936884216149</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.47610490366297</v>
       </c>
       <c r="T11" t="n">
-        <v>201.8602508631767</v>
+        <v>201.8602508631768</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9575665809201</v>
+        <v>250.9575665809202</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>64.75595586795328</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7479610274723</v>
       </c>
       <c r="H12" t="n">
-        <v>87.16783629397055</v>
+        <v>87.16783629397054</v>
       </c>
       <c r="I12" t="n">
-        <v>10.15783760725321</v>
+        <v>10.15783760725317</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.440904962975182</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8149522846373</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.8803136147356</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.0943807595557</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6480192037714</v>
+        <v>218.6480192037715</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2003369706461</v>
+        <v>286.2003369706462</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>101.7776085663691</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4516584286805</v>
+        <v>410.4516584286806</v>
       </c>
       <c r="H14" t="n">
         <v>289.7936884216148</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>94.67321612705533</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>201.8602508631767</v>
       </c>
       <c r="U14" t="n">
         <v>250.9575665809201</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>275.0918883133522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.7479610274723</v>
       </c>
       <c r="H15" t="n">
-        <v>87.16783629397055</v>
+        <v>87.16783629397054</v>
       </c>
       <c r="I15" t="n">
-        <v>10.15783760725321</v>
+        <v>10.15783760725317</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8149522846373</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.8803136147356</v>
       </c>
       <c r="I16" t="n">
-        <v>84.36503502241267</v>
+        <v>90.01140619815337</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>79.45130131243164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>186.0943807595557</v>
       </c>
       <c r="T16" t="n">
-        <v>218.6480192037714</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.200336970646</v>
+        <v>286.2003369706461</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>96.6530825047507</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.978064777829</v>
+        <v>351.9780647778292</v>
       </c>
       <c r="C17" t="n">
-        <v>334.517114885356</v>
+        <v>334.5171148853561</v>
       </c>
       <c r="D17" t="n">
-        <v>323.9272647350314</v>
+        <v>323.9272647350315</v>
       </c>
       <c r="E17" t="n">
-        <v>351.1745931866103</v>
+        <v>351.1745931866104</v>
       </c>
       <c r="F17" t="n">
-        <v>376.1202688560599</v>
+        <v>376.12026885606</v>
       </c>
       <c r="G17" t="n">
-        <v>304.7860994736274</v>
+        <v>379.6958815430291</v>
       </c>
       <c r="H17" t="n">
-        <v>259.0379115359633</v>
+        <v>259.0379115359634</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>67.7203280180115</v>
       </c>
       <c r="T17" t="n">
-        <v>171.1044739775252</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>220.2017896952687</v>
       </c>
       <c r="V17" t="n">
-        <v>296.9964815844834</v>
+        <v>105.2690557793299</v>
       </c>
       <c r="W17" t="n">
-        <v>318.4851918317615</v>
+        <v>318.4851918317616</v>
       </c>
       <c r="X17" t="n">
-        <v>338.9753237928175</v>
+        <v>338.9753237928176</v>
       </c>
       <c r="Y17" t="n">
-        <v>355.4821617704021</v>
+        <v>355.4821617704022</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>87.16783629397054</v>
       </c>
       <c r="I18" t="n">
-        <v>10.1578376072532</v>
+        <v>10.15783760725317</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.0762032962858</v>
+        <v>149.0762032962859</v>
       </c>
       <c r="C19" t="n">
-        <v>136.4910442129763</v>
+        <v>136.4910442129764</v>
       </c>
       <c r="D19" t="n">
-        <v>117.8596961325608</v>
+        <v>117.8596961325609</v>
       </c>
       <c r="E19" t="n">
-        <v>71.0305942049784</v>
+        <v>115.6781857609178</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>135.0591753989857</v>
+        <v>135.0591753989858</v>
       </c>
       <c r="H19" t="n">
-        <v>112.1245367290841</v>
+        <v>112.1245367290842</v>
       </c>
       <c r="I19" t="n">
-        <v>59.25562931250185</v>
+        <v>59.25562931250195</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.69552442678015</v>
+        <v>4.047932870839067</v>
       </c>
       <c r="S19" t="n">
         <v>155.3386038739042</v>
       </c>
       <c r="T19" t="n">
-        <v>187.8922423181199</v>
+        <v>187.89224231812</v>
       </c>
       <c r="U19" t="n">
-        <v>255.4445600849946</v>
+        <v>255.4445600849947</v>
       </c>
       <c r="V19" t="n">
-        <v>221.3818664381765</v>
+        <v>221.3818664381766</v>
       </c>
       <c r="W19" t="n">
-        <v>255.7672214509395</v>
+        <v>255.7672214509396</v>
       </c>
       <c r="X19" t="n">
-        <v>194.9538785033856</v>
+        <v>194.9538785033857</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.8288764664433</v>
+        <v>187.8288764664434</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>334.517114885356</v>
+        <v>334.5171148853561</v>
       </c>
       <c r="D20" t="n">
-        <v>323.9272647350314</v>
+        <v>323.9272647350315</v>
       </c>
       <c r="E20" t="n">
-        <v>351.1745931866103</v>
+        <v>351.1745931866104</v>
       </c>
       <c r="F20" t="n">
-        <v>376.1202688560599</v>
+        <v>376.12026885606</v>
       </c>
       <c r="G20" t="n">
-        <v>379.695881543029</v>
+        <v>379.6958815430291</v>
       </c>
       <c r="H20" t="n">
-        <v>259.0379115359633</v>
+        <v>259.0379115359634</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>56.86649301316019</v>
+        <v>56.86649301316154</v>
       </c>
       <c r="T20" t="n">
-        <v>171.1044739775252</v>
+        <v>171.1044739775253</v>
       </c>
       <c r="U20" t="n">
-        <v>220.2017896952686</v>
+        <v>220.2017896952687</v>
       </c>
       <c r="V20" t="n">
-        <v>296.9964815844834</v>
+        <v>296.9964815844835</v>
       </c>
       <c r="W20" t="n">
-        <v>318.4851918317615</v>
+        <v>318.4851918317616</v>
       </c>
       <c r="X20" t="n">
-        <v>338.9753237928175</v>
+        <v>338.9753237928176</v>
       </c>
       <c r="Y20" t="n">
-        <v>355.4821617704021</v>
+        <v>355.4821617704022</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>87.16783629397054</v>
       </c>
       <c r="I21" t="n">
-        <v>10.1578376072532</v>
+        <v>10.15783760725317</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>149.0762032962859</v>
       </c>
       <c r="C22" t="n">
-        <v>136.4910442129763</v>
+        <v>136.4910442129764</v>
       </c>
       <c r="D22" t="n">
-        <v>117.8596961325608</v>
+        <v>17.80246275184146</v>
       </c>
       <c r="E22" t="n">
-        <v>115.6781857609176</v>
+        <v>115.6781857609178</v>
       </c>
       <c r="F22" t="n">
-        <v>114.6652711372797</v>
+        <v>114.6652711372798</v>
       </c>
       <c r="G22" t="n">
-        <v>135.0591753989857</v>
+        <v>135.0591753989858</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1245367290841</v>
+        <v>112.1245367290842</v>
       </c>
       <c r="I22" t="n">
-        <v>59.25562931250185</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.45886502984759</v>
+        <v>48.69552442678022</v>
       </c>
       <c r="S22" t="n">
         <v>155.3386038739042</v>
       </c>
       <c r="T22" t="n">
-        <v>187.8922423181199</v>
+        <v>187.89224231812</v>
       </c>
       <c r="U22" t="n">
-        <v>255.4445600849946</v>
+        <v>255.4445600849947</v>
       </c>
       <c r="V22" t="n">
-        <v>221.3818664381765</v>
+        <v>221.3818664381766</v>
       </c>
       <c r="W22" t="n">
-        <v>255.7672214509395</v>
+        <v>255.7672214509396</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9538785033856</v>
+        <v>194.9538785033857</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.8288764664433</v>
+        <v>187.8288764664434</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.978064777829</v>
+        <v>351.9780647778292</v>
       </c>
       <c r="C23" t="n">
-        <v>334.517114885356</v>
+        <v>334.5171148853561</v>
       </c>
       <c r="D23" t="n">
-        <v>323.9272647350314</v>
+        <v>323.9272647350315</v>
       </c>
       <c r="E23" t="n">
-        <v>351.1745931866103</v>
+        <v>351.1745931866104</v>
       </c>
       <c r="F23" t="n">
-        <v>376.1202688560599</v>
+        <v>376.12026885606</v>
       </c>
       <c r="G23" t="n">
-        <v>379.3988364137847</v>
+        <v>379.3988364137848</v>
       </c>
       <c r="H23" t="n">
-        <v>255.9957981060897</v>
+        <v>255.9957981060898</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.95141213535604</v>
+        <v>60.95141213535432</v>
       </c>
       <c r="T23" t="n">
-        <v>169.8041589242579</v>
+        <v>169.8041589242582</v>
       </c>
       <c r="U23" t="n">
-        <v>220.1780260849291</v>
+        <v>220.1780260849292</v>
       </c>
       <c r="V23" t="n">
-        <v>296.9964815844834</v>
+        <v>296.9964815844835</v>
       </c>
       <c r="W23" t="n">
-        <v>318.4851918317615</v>
+        <v>318.4851918317616</v>
       </c>
       <c r="X23" t="n">
-        <v>338.9753237928175</v>
+        <v>338.9753237928176</v>
       </c>
       <c r="Y23" t="n">
-        <v>355.4821617704021</v>
+        <v>355.4821617704022</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.0762032962858</v>
+        <v>149.0762032962859</v>
       </c>
       <c r="C25" t="n">
-        <v>136.4910442129763</v>
+        <v>136.4910442129764</v>
       </c>
       <c r="D25" t="n">
-        <v>117.8596961325608</v>
+        <v>117.8596961325609</v>
       </c>
       <c r="E25" t="n">
-        <v>100.0448717853206</v>
+        <v>115.6781857609178</v>
       </c>
       <c r="F25" t="n">
-        <v>114.6652711372797</v>
+        <v>114.6652711372798</v>
       </c>
       <c r="G25" t="n">
-        <v>134.9259311801505</v>
+        <v>134.9259311801506</v>
       </c>
       <c r="H25" t="n">
-        <v>110.939874492531</v>
+        <v>110.9398744925311</v>
       </c>
       <c r="I25" t="n">
-        <v>55.24861225880278</v>
+        <v>55.24861225880289</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.70437982351667</v>
+        <v>27.07106584791701</v>
       </c>
       <c r="S25" t="n">
-        <v>153.0165205329304</v>
+        <v>153.0165205329305</v>
       </c>
       <c r="T25" t="n">
-        <v>187.3229261103694</v>
+        <v>187.3229261103695</v>
       </c>
       <c r="U25" t="n">
-        <v>255.4372922185127</v>
+        <v>255.4372922185128</v>
       </c>
       <c r="V25" t="n">
-        <v>221.3818664381765</v>
+        <v>221.3818664381766</v>
       </c>
       <c r="W25" t="n">
-        <v>255.7672214509395</v>
+        <v>255.7672214509396</v>
       </c>
       <c r="X25" t="n">
-        <v>194.9538785033856</v>
+        <v>194.9538785033857</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.8288764664433</v>
+        <v>187.8288764664434</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.978064777829</v>
+        <v>351.9780647778291</v>
       </c>
       <c r="C26" t="n">
-        <v>334.517114885356</v>
+        <v>334.5171148853561</v>
       </c>
       <c r="D26" t="n">
-        <v>323.9272647350314</v>
+        <v>323.9272647350315</v>
       </c>
       <c r="E26" t="n">
         <v>351.1745931866103</v>
       </c>
       <c r="F26" t="n">
-        <v>376.1202688560599</v>
+        <v>376.12026885606</v>
       </c>
       <c r="G26" t="n">
         <v>379.3988364137847</v>
       </c>
       <c r="H26" t="n">
-        <v>255.9957981060897</v>
+        <v>255.9957981060898</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.95141213535603</v>
+        <v>60.95141213535609</v>
       </c>
       <c r="T26" t="n">
         <v>169.8041589242581</v>
@@ -2618,7 +2618,7 @@
         <v>318.4851918317615</v>
       </c>
       <c r="X26" t="n">
-        <v>338.9753237928175</v>
+        <v>338.9753237928176</v>
       </c>
       <c r="Y26" t="n">
         <v>355.4821617704021</v>
@@ -2713,25 +2713,25 @@
         <v>149.0762032962858</v>
       </c>
       <c r="C28" t="n">
-        <v>136.4910442129763</v>
+        <v>136.4910442129764</v>
       </c>
       <c r="D28" t="n">
-        <v>117.8596961325608</v>
+        <v>117.8596961325609</v>
       </c>
       <c r="E28" t="n">
-        <v>115.6781857609176</v>
+        <v>115.6781857609177</v>
       </c>
       <c r="F28" t="n">
-        <v>99.03195716168321</v>
+        <v>114.6652711372798</v>
       </c>
       <c r="G28" t="n">
-        <v>134.9259311801505</v>
+        <v>134.9259311801506</v>
       </c>
       <c r="H28" t="n">
-        <v>110.939874492531</v>
+        <v>110.9398744925311</v>
       </c>
       <c r="I28" t="n">
-        <v>55.24861225880277</v>
+        <v>55.24861225880284</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.70437982351667</v>
+        <v>27.07106584791825</v>
       </c>
       <c r="S28" t="n">
-        <v>153.0165205329304</v>
+        <v>153.0165205329305</v>
       </c>
       <c r="T28" t="n">
-        <v>187.3229261103694</v>
+        <v>187.3229261103695</v>
       </c>
       <c r="U28" t="n">
         <v>255.4372922185127</v>
@@ -2776,7 +2776,7 @@
         <v>255.7672214509395</v>
       </c>
       <c r="X28" t="n">
-        <v>194.9538785033856</v>
+        <v>194.9538785033857</v>
       </c>
       <c r="Y28" t="n">
         <v>187.8288764664433</v>
@@ -2956,7 +2956,7 @@
         <v>117.8596961325609</v>
       </c>
       <c r="E31" t="n">
-        <v>100.0448717853206</v>
+        <v>115.6781857609177</v>
       </c>
       <c r="F31" t="n">
         <v>114.6652711372798</v>
@@ -2965,7 +2965,7 @@
         <v>134.9259311801506</v>
       </c>
       <c r="H31" t="n">
-        <v>110.9398744925311</v>
+        <v>95.30656051693337</v>
       </c>
       <c r="I31" t="n">
         <v>55.24861225880284</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.978064777829</v>
+        <v>351.9780647778291</v>
       </c>
       <c r="C32" t="n">
-        <v>334.517114885356</v>
+        <v>334.5171148853561</v>
       </c>
       <c r="D32" t="n">
-        <v>323.9272647350314</v>
+        <v>323.9272647350315</v>
       </c>
       <c r="E32" t="n">
         <v>351.1745931866103</v>
       </c>
       <c r="F32" t="n">
-        <v>376.1202688560599</v>
+        <v>376.12026885606</v>
       </c>
       <c r="G32" t="n">
         <v>379.3988364137847</v>
       </c>
       <c r="H32" t="n">
-        <v>255.9957981060897</v>
+        <v>255.9957981060898</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.95141213535602</v>
+        <v>60.95141213535609</v>
       </c>
       <c r="T32" t="n">
         <v>169.8041589242581</v>
@@ -3092,7 +3092,7 @@
         <v>318.4851918317615</v>
       </c>
       <c r="X32" t="n">
-        <v>338.9753237928175</v>
+        <v>338.9753237928176</v>
       </c>
       <c r="Y32" t="n">
         <v>355.4821617704021</v>
@@ -3187,25 +3187,25 @@
         <v>149.0762032962858</v>
       </c>
       <c r="C34" t="n">
-        <v>136.4910442129763</v>
+        <v>136.4910442129764</v>
       </c>
       <c r="D34" t="n">
-        <v>117.8596961325608</v>
+        <v>117.8596961325609</v>
       </c>
       <c r="E34" t="n">
-        <v>115.6781857609176</v>
+        <v>115.6781857609177</v>
       </c>
       <c r="F34" t="n">
-        <v>99.03195716168327</v>
+        <v>114.6652711372798</v>
       </c>
       <c r="G34" t="n">
-        <v>134.9259311801505</v>
+        <v>134.9259311801506</v>
       </c>
       <c r="H34" t="n">
-        <v>110.939874492531</v>
+        <v>110.9398744925311</v>
       </c>
       <c r="I34" t="n">
-        <v>55.24861225880277</v>
+        <v>55.24861225880284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.70437982351666</v>
+        <v>42.70437982351673</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0165205329304</v>
+        <v>137.3832065573329</v>
       </c>
       <c r="T34" t="n">
-        <v>187.3229261103694</v>
+        <v>187.3229261103695</v>
       </c>
       <c r="U34" t="n">
         <v>255.4372922185127</v>
@@ -3250,7 +3250,7 @@
         <v>255.7672214509395</v>
       </c>
       <c r="X34" t="n">
-        <v>194.9538785033856</v>
+        <v>194.9538785033857</v>
       </c>
       <c r="Y34" t="n">
         <v>187.8288764664433</v>
@@ -3430,7 +3430,7 @@
         <v>117.8596961325609</v>
       </c>
       <c r="E37" t="n">
-        <v>100.0448717853197</v>
+        <v>100.0448717853196</v>
       </c>
       <c r="F37" t="n">
         <v>114.6652711372798</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.9780647778291</v>
+        <v>351.978064777829</v>
       </c>
       <c r="C38" t="n">
-        <v>334.5171148853561</v>
+        <v>334.517114885356</v>
       </c>
       <c r="D38" t="n">
-        <v>323.9272647350315</v>
+        <v>323.9272647350314</v>
       </c>
       <c r="E38" t="n">
         <v>351.1745931866103</v>
       </c>
       <c r="F38" t="n">
-        <v>376.12026885606</v>
+        <v>376.1202688560599</v>
       </c>
       <c r="G38" t="n">
         <v>379.3988364137847</v>
       </c>
       <c r="H38" t="n">
-        <v>255.9957981060898</v>
+        <v>255.9957981060897</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.95141213535609</v>
+        <v>60.95141213535603</v>
       </c>
       <c r="T38" t="n">
         <v>169.8041589242581</v>
@@ -3566,7 +3566,7 @@
         <v>318.4851918317615</v>
       </c>
       <c r="X38" t="n">
-        <v>338.9753237928176</v>
+        <v>338.9753237928175</v>
       </c>
       <c r="Y38" t="n">
         <v>355.4821617704021</v>
@@ -3661,25 +3661,25 @@
         <v>149.0762032962858</v>
       </c>
       <c r="C40" t="n">
-        <v>136.4910442129764</v>
+        <v>136.4910442129763</v>
       </c>
       <c r="D40" t="n">
-        <v>117.8596961325609</v>
+        <v>117.8596961325608</v>
       </c>
       <c r="E40" t="n">
-        <v>115.6781857609177</v>
+        <v>115.6781857609176</v>
       </c>
       <c r="F40" t="n">
-        <v>114.6652711372798</v>
+        <v>114.6652711372797</v>
       </c>
       <c r="G40" t="n">
-        <v>134.9259311801506</v>
+        <v>134.9259311801505</v>
       </c>
       <c r="H40" t="n">
-        <v>110.9398744925311</v>
+        <v>110.939874492531</v>
       </c>
       <c r="I40" t="n">
-        <v>39.61529828320516</v>
+        <v>39.61529828320622</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.70437982351673</v>
+        <v>42.70437982351667</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0165205329305</v>
+        <v>153.0165205329304</v>
       </c>
       <c r="T40" t="n">
-        <v>187.3229261103695</v>
+        <v>187.3229261103694</v>
       </c>
       <c r="U40" t="n">
         <v>255.4372922185127</v>
@@ -3724,7 +3724,7 @@
         <v>255.7672214509395</v>
       </c>
       <c r="X40" t="n">
-        <v>194.9538785033857</v>
+        <v>194.9538785033856</v>
       </c>
       <c r="Y40" t="n">
         <v>187.8288764664433</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.9780647778291</v>
+        <v>351.978064777829</v>
       </c>
       <c r="C41" t="n">
-        <v>334.5171148853561</v>
+        <v>334.517114885356</v>
       </c>
       <c r="D41" t="n">
-        <v>323.9272647350315</v>
+        <v>323.9272647350314</v>
       </c>
       <c r="E41" t="n">
         <v>351.1745931866103</v>
       </c>
       <c r="F41" t="n">
-        <v>376.12026885606</v>
+        <v>376.1202688560599</v>
       </c>
       <c r="G41" t="n">
         <v>379.3988364137847</v>
       </c>
       <c r="H41" t="n">
-        <v>255.9957981060898</v>
+        <v>255.9957981060897</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.95141213535609</v>
+        <v>60.95141213535603</v>
       </c>
       <c r="T41" t="n">
         <v>169.8041589242581</v>
       </c>
       <c r="U41" t="n">
-        <v>220.1780260849291</v>
+        <v>220.1780260849293</v>
       </c>
       <c r="V41" t="n">
         <v>296.9964815844834</v>
@@ -3803,7 +3803,7 @@
         <v>318.4851918317615</v>
       </c>
       <c r="X41" t="n">
-        <v>338.9753237928176</v>
+        <v>338.9753237928175</v>
       </c>
       <c r="Y41" t="n">
         <v>355.4821617704021</v>
@@ -3898,25 +3898,25 @@
         <v>149.0762032962858</v>
       </c>
       <c r="C43" t="n">
-        <v>136.4910442129764</v>
+        <v>136.4910442129763</v>
       </c>
       <c r="D43" t="n">
-        <v>117.8596961325609</v>
+        <v>117.8596961325608</v>
       </c>
       <c r="E43" t="n">
-        <v>115.6781857609177</v>
+        <v>115.6781857609176</v>
       </c>
       <c r="F43" t="n">
-        <v>114.6652711372798</v>
+        <v>114.6652711372797</v>
       </c>
       <c r="G43" t="n">
-        <v>134.9259311801506</v>
+        <v>134.9259311801505</v>
       </c>
       <c r="H43" t="n">
-        <v>110.9398744925311</v>
+        <v>110.939874492531</v>
       </c>
       <c r="I43" t="n">
-        <v>55.24861225880284</v>
+        <v>55.24861225880277</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.70437982351673</v>
+        <v>27.07106584791983</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0165205329305</v>
+        <v>153.0165205329304</v>
       </c>
       <c r="T43" t="n">
-        <v>187.3229261103695</v>
+        <v>187.3229261103694</v>
       </c>
       <c r="U43" t="n">
         <v>255.4372922185127</v>
       </c>
       <c r="V43" t="n">
-        <v>205.7485524625785</v>
+        <v>221.3818664381765</v>
       </c>
       <c r="W43" t="n">
         <v>255.7672214509395</v>
       </c>
       <c r="X43" t="n">
-        <v>194.9538785033857</v>
+        <v>194.9538785033856</v>
       </c>
       <c r="Y43" t="n">
         <v>187.8288764664433</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.9780647778291</v>
+        <v>351.9780647778292</v>
       </c>
       <c r="C44" t="n">
         <v>334.5171148853561</v>
@@ -3983,13 +3983,13 @@
         <v>323.9272647350315</v>
       </c>
       <c r="E44" t="n">
-        <v>351.1745931866103</v>
+        <v>351.1745931866104</v>
       </c>
       <c r="F44" t="n">
         <v>376.12026885606</v>
       </c>
       <c r="G44" t="n">
-        <v>379.3988364137847</v>
+        <v>379.3988364137848</v>
       </c>
       <c r="H44" t="n">
         <v>255.9957981060898</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.95141213535609</v>
+        <v>60.95141213535616</v>
       </c>
       <c r="T44" t="n">
-        <v>169.8041589242581</v>
+        <v>169.8041589242582</v>
       </c>
       <c r="U44" t="n">
-        <v>220.1780260849291</v>
+        <v>220.1780260849292</v>
       </c>
       <c r="V44" t="n">
-        <v>296.9964815844834</v>
+        <v>296.9964815844835</v>
       </c>
       <c r="W44" t="n">
-        <v>318.4851918317615</v>
+        <v>318.4851918317616</v>
       </c>
       <c r="X44" t="n">
         <v>338.9753237928176</v>
       </c>
       <c r="Y44" t="n">
-        <v>355.4821617704021</v>
+        <v>355.4821617704022</v>
       </c>
     </row>
     <row r="45">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.0762032962858</v>
+        <v>149.0762032962859</v>
       </c>
       <c r="C46" t="n">
         <v>136.4910442129764</v>
       </c>
       <c r="D46" t="n">
-        <v>102.2263821569633</v>
+        <v>117.859696132561</v>
       </c>
       <c r="E46" t="n">
-        <v>115.6781857609177</v>
+        <v>115.6781857609178</v>
       </c>
       <c r="F46" t="n">
-        <v>114.6652711372798</v>
+        <v>99.03195716167978</v>
       </c>
       <c r="G46" t="n">
         <v>134.9259311801506</v>
@@ -4153,7 +4153,7 @@
         <v>110.9398744925311</v>
       </c>
       <c r="I46" t="n">
-        <v>55.24861225880284</v>
+        <v>55.24861225880291</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.70437982351673</v>
+        <v>42.7043798235168</v>
       </c>
       <c r="S46" t="n">
         <v>153.0165205329305</v>
@@ -4189,19 +4189,19 @@
         <v>187.3229261103695</v>
       </c>
       <c r="U46" t="n">
-        <v>255.4372922185127</v>
+        <v>255.4372922185128</v>
       </c>
       <c r="V46" t="n">
-        <v>221.3818664381765</v>
+        <v>221.3818664381766</v>
       </c>
       <c r="W46" t="n">
-        <v>255.7672214509395</v>
+        <v>255.7672214509396</v>
       </c>
       <c r="X46" t="n">
         <v>194.9538785033857</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.8288764664433</v>
+        <v>187.8288764664434</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="C2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="D2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="E2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="F2" t="n">
-        <v>48.7012105227805</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="G2" t="n">
-        <v>34.64901070662293</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="H2" t="n">
-        <v>34.64901070662293</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="I2" t="n">
-        <v>34.64901070662293</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="J2" t="n">
-        <v>34.64901070662293</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="K2" t="n">
-        <v>34.64901070662293</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="L2" t="n">
-        <v>23.86468804894655</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="M2" t="n">
-        <v>37.63724908876258</v>
+        <v>14.88549526525571</v>
       </c>
       <c r="N2" t="n">
-        <v>51.40981012857861</v>
+        <v>28.65805630507175</v>
       </c>
       <c r="O2" t="n">
-        <v>55.64671127198397</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="P2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="Q2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="R2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="S2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="T2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="U2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="V2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="W2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="X2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.64671127198397</v>
+        <v>22.11063479080072</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.26953367391238</v>
+        <v>27.54231163966883</v>
       </c>
       <c r="C3" t="n">
-        <v>43.26953367391238</v>
+        <v>27.54231163966883</v>
       </c>
       <c r="D3" t="n">
-        <v>43.26953367391238</v>
+        <v>27.54231163966883</v>
       </c>
       <c r="E3" t="n">
-        <v>43.26953367391238</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="F3" t="n">
-        <v>43.26953367391238</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="G3" t="n">
-        <v>43.26953367391238</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="H3" t="n">
-        <v>43.26953367391238</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="I3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="J3" t="n">
         <v>15.16513404159725</v>
@@ -4413,13 +4413,13 @@
         <v>1.112934225439679</v>
       </c>
       <c r="L3" t="n">
-        <v>6.259620890165159</v>
+        <v>14.88549526525571</v>
       </c>
       <c r="M3" t="n">
-        <v>20.03218192998119</v>
+        <v>28.65805630507175</v>
       </c>
       <c r="N3" t="n">
-        <v>33.80474296979722</v>
+        <v>42.43061734488778</v>
       </c>
       <c r="O3" t="n">
         <v>47.57730400961326</v>
@@ -4431,28 +4431,28 @@
         <v>55.64671127198397</v>
       </c>
       <c r="R3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="S3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="T3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="U3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="V3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="W3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="X3" t="n">
-        <v>43.26953367391238</v>
+        <v>41.5945114558264</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.26953367391238</v>
+        <v>27.54231163966883</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>71.6016318784047</v>
+        <v>97.67265826350346</v>
       </c>
       <c r="G5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4586,31 +4586,31 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.8996187744902</v>
+        <v>104.6181590127069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.9370895426845</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="C6" t="n">
-        <v>100.9370895426845</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="D6" t="n">
-        <v>100.9370895426845</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="E6" t="n">
-        <v>100.9370895426845</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370895426845</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="G6" t="n">
-        <v>100.9370895426845</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="H6" t="n">
-        <v>100.9370895426845</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>151.23507643877</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>151.23507643877</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T6" t="n">
-        <v>100.9370895426845</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U6" t="n">
-        <v>100.9370895426845</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V6" t="n">
-        <v>100.9370895426845</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="W6" t="n">
-        <v>100.9370895426845</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="X6" t="n">
-        <v>100.9370895426845</v>
+        <v>117.551221084159</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.9370895426845</v>
+        <v>67.25323418807346</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.4869038041711</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="C8" t="n">
-        <v>367.4869038041711</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="D8" t="n">
-        <v>367.4869038041711</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="E8" t="n">
-        <v>367.4869038041711</v>
+        <v>254.2417925668746</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2417925668746</v>
+        <v>140.996681329578</v>
       </c>
       <c r="G8" t="n">
-        <v>140.996681329578</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="H8" t="n">
-        <v>140.996681329578</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="I8" t="n">
         <v>27.75157009228143</v>
@@ -4808,7 +4808,7 @@
         <v>32.11753523687541</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773404</v>
+        <v>97.73708609773402</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4826,28 +4826,28 @@
         <v>432.6813068454349</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454349</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454349</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454349</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454349</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="V8" t="n">
-        <v>432.6813068454349</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="W8" t="n">
-        <v>432.6813068454349</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="X8" t="n">
-        <v>367.4869038041711</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.4869038041711</v>
+        <v>336.3649920389075</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4896,7 @@
         <v>341.1718347265719</v>
       </c>
       <c r="O9" t="n">
-        <v>441.2239361578219</v>
+        <v>387.4830745953192</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996944</v>
@@ -4905,22 +4905,22 @@
         <v>439.1005811301778</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1757398283464</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="S9" t="n">
-        <v>242.9306285910499</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="T9" t="n">
-        <v>129.6855173537533</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="U9" t="n">
-        <v>16.44040611645674</v>
+        <v>325.8554698928812</v>
       </c>
       <c r="V9" t="n">
-        <v>8.969012809993888</v>
+        <v>212.6103586555847</v>
       </c>
       <c r="W9" t="n">
-        <v>8.969012809993888</v>
+        <v>99.36524741828809</v>
       </c>
       <c r="X9" t="n">
         <v>8.969012809993888</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993888</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993888</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993888</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993888</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993888</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="G10" t="n">
         <v>8.969012809993888</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1894.698635212206</v>
+        <v>1507.869223340369</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.736118271795</v>
+        <v>1138.906706399957</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.470419665044</v>
+        <v>780.6410077932069</v>
       </c>
       <c r="E11" t="n">
-        <v>781.6821670668</v>
+        <v>394.8527551949626</v>
       </c>
       <c r="F11" t="n">
-        <v>370.6962622771922</v>
+        <v>370.6962622771923</v>
       </c>
       <c r="G11" t="n">
-        <v>370.6962622771922</v>
+        <v>370.6962622771923</v>
       </c>
       <c r="H11" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="I11" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J11" t="n">
         <v>306.3519002780317</v>
@@ -5045,46 +5045,46 @@
         <v>699.3676445736542</v>
       </c>
       <c r="L11" t="n">
-        <v>1223.840190059681</v>
+        <v>1223.840190059682</v>
       </c>
       <c r="M11" t="n">
-        <v>1839.086389397694</v>
+        <v>1839.086389397696</v>
       </c>
       <c r="N11" t="n">
-        <v>2468.901723839927</v>
+        <v>2468.901723839929</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.283223446042</v>
+        <v>3050.283223446044</v>
       </c>
       <c r="P11" t="n">
-        <v>3511.977881764534</v>
+        <v>3511.977881764536</v>
       </c>
       <c r="Q11" t="n">
-        <v>3810.518595819221</v>
+        <v>3810.518595819224</v>
       </c>
       <c r="R11" t="n">
-        <v>3898.768244081084</v>
+        <v>3898.768244081087</v>
       </c>
       <c r="S11" t="n">
-        <v>3898.768244081084</v>
+        <v>3799.297431047084</v>
       </c>
       <c r="T11" t="n">
-        <v>3694.869000784945</v>
+        <v>3595.398187750946</v>
       </c>
       <c r="U11" t="n">
-        <v>3441.376509289067</v>
+        <v>3341.905696255068</v>
       </c>
       <c r="V11" t="n">
-        <v>3110.313621945496</v>
+        <v>3010.842808911497</v>
       </c>
       <c r="W11" t="n">
-        <v>3044.90356551322</v>
+        <v>2658.074153641383</v>
       </c>
       <c r="X11" t="n">
-        <v>2671.43780725214</v>
+        <v>2284.608395380303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2281.298475276328</v>
+        <v>1894.469063404491</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2841263980093</v>
       </c>
       <c r="H12" t="n">
-        <v>88.23580690915017</v>
+        <v>88.2358069091502</v>
       </c>
       <c r="I12" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J12" t="n">
-        <v>195.1770178708366</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="K12" t="n">
-        <v>473.6481351589626</v>
+        <v>261.5002098885277</v>
       </c>
       <c r="L12" t="n">
-        <v>894.4094589783394</v>
+        <v>682.2615337079048</v>
       </c>
       <c r="M12" t="n">
-        <v>1404.774946018304</v>
+        <v>1192.62702074787</v>
       </c>
       <c r="N12" t="n">
-        <v>1943.056933776061</v>
+        <v>1730.909008505627</v>
       </c>
       <c r="O12" t="n">
-        <v>2011.686767244041</v>
+        <v>2201.112070183021</v>
       </c>
       <c r="P12" t="n">
-        <v>2369.733111831045</v>
+        <v>2559.158414770026</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.158414770026</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.9067931755831</v>
+        <v>391.2350969153225</v>
       </c>
       <c r="C13" t="n">
-        <v>546.9706102476762</v>
+        <v>222.2989139874155</v>
       </c>
       <c r="D13" t="n">
-        <v>396.8539708353405</v>
+        <v>222.2989139874155</v>
       </c>
       <c r="E13" t="n">
-        <v>248.9408772529474</v>
+        <v>222.2989139874154</v>
       </c>
       <c r="F13" t="n">
-        <v>245.4652156741845</v>
+        <v>222.2989139874153</v>
       </c>
       <c r="G13" t="n">
-        <v>77.97536488162167</v>
+        <v>222.2989139874153</v>
       </c>
       <c r="H13" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="I13" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J13" t="n">
-        <v>137.8564395441041</v>
+        <v>137.8564395441043</v>
       </c>
       <c r="K13" t="n">
-        <v>366.0962766674295</v>
+        <v>366.0962766674297</v>
       </c>
       <c r="L13" t="n">
-        <v>713.6911225626345</v>
+        <v>713.6911225626347</v>
       </c>
       <c r="M13" t="n">
         <v>1090.570274259994</v>
       </c>
       <c r="N13" t="n">
-        <v>1463.922698518167</v>
+        <v>1463.922698518168</v>
       </c>
       <c r="O13" t="n">
-        <v>1792.757795647057</v>
+        <v>1792.757795647058</v>
       </c>
       <c r="P13" t="n">
         <v>2050.612347030394</v>
       </c>
       <c r="Q13" t="n">
-        <v>2145.702392603945</v>
+        <v>2145.702392603946</v>
       </c>
       <c r="R13" t="n">
-        <v>2145.702392603945</v>
+        <v>2145.702392603946</v>
       </c>
       <c r="S13" t="n">
-        <v>2145.702392603945</v>
+        <v>1957.728270624596</v>
       </c>
       <c r="T13" t="n">
-        <v>1924.84580754963</v>
+        <v>1736.871685570282</v>
       </c>
       <c r="U13" t="n">
-        <v>1635.754558084331</v>
+        <v>1447.780436104983</v>
       </c>
       <c r="V13" t="n">
-        <v>1635.754558084331</v>
+        <v>1193.095947899096</v>
       </c>
       <c r="W13" t="n">
-        <v>1346.33738804737</v>
+        <v>903.6787778621349</v>
       </c>
       <c r="X13" t="n">
-        <v>1118.347837149353</v>
+        <v>675.6892269641169</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.5552580058228</v>
+        <v>572.8835617455622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1923.508017390407</v>
+        <v>1898.310365199043</v>
       </c>
       <c r="C14" t="n">
-        <v>1554.545500449995</v>
+        <v>1529.347848258632</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.279801843245</v>
+        <v>1171.082149651881</v>
       </c>
       <c r="E14" t="n">
-        <v>1196.279801843245</v>
+        <v>785.293897053637</v>
       </c>
       <c r="F14" t="n">
         <v>785.2938970536372</v>
       </c>
       <c r="G14" t="n">
-        <v>370.6962622771921</v>
+        <v>370.6962622771923</v>
       </c>
       <c r="H14" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="I14" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J14" t="n">
-        <v>306.3519002780317</v>
+        <v>306.3519002780322</v>
       </c>
       <c r="K14" t="n">
-        <v>699.3676445736546</v>
+        <v>699.3676445736548</v>
       </c>
       <c r="L14" t="n">
         <v>1223.840190059682</v>
       </c>
       <c r="M14" t="n">
-        <v>1839.086389397695</v>
+        <v>1839.086389397696</v>
       </c>
       <c r="N14" t="n">
-        <v>2468.901723839928</v>
+        <v>2468.901723839929</v>
       </c>
       <c r="O14" t="n">
-        <v>3050.283223446043</v>
+        <v>3050.283223446045</v>
       </c>
       <c r="P14" t="n">
-        <v>3511.977881764534</v>
+        <v>3511.977881764537</v>
       </c>
       <c r="Q14" t="n">
-        <v>3810.518595819221</v>
+        <v>3810.518595819224</v>
       </c>
       <c r="R14" t="n">
-        <v>3898.768244081084</v>
+        <v>3898.768244081087</v>
       </c>
       <c r="S14" t="n">
-        <v>3898.768244081084</v>
+        <v>3803.138732841637</v>
       </c>
       <c r="T14" t="n">
-        <v>3898.768244081084</v>
+        <v>3599.239489545499</v>
       </c>
       <c r="U14" t="n">
-        <v>3645.275752585205</v>
+        <v>3345.74699804962</v>
       </c>
       <c r="V14" t="n">
-        <v>3314.212865241634</v>
+        <v>3014.684110706049</v>
       </c>
       <c r="W14" t="n">
-        <v>2961.44420997152</v>
+        <v>2661.915455435935</v>
       </c>
       <c r="X14" t="n">
-        <v>2587.97845171044</v>
+        <v>2288.449697174855</v>
       </c>
       <c r="Y14" t="n">
-        <v>2310.107857454529</v>
+        <v>1898.310365199043</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.2841263980093</v>
       </c>
       <c r="H15" t="n">
-        <v>88.23580690915017</v>
+        <v>88.2358069091502</v>
       </c>
       <c r="I15" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J15" t="n">
-        <v>77.97536488162167</v>
+        <v>195.1770178708367</v>
       </c>
       <c r="K15" t="n">
-        <v>77.97536488162167</v>
+        <v>473.6481351589631</v>
       </c>
       <c r="L15" t="n">
-        <v>498.7366887009985</v>
+        <v>894.4094589783402</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.102175740964</v>
+        <v>1404.774946018305</v>
       </c>
       <c r="N15" t="n">
-        <v>1547.38416349872</v>
+        <v>1943.056933776063</v>
       </c>
       <c r="O15" t="n">
-        <v>2017.587225176114</v>
+        <v>2369.733111831045</v>
       </c>
       <c r="P15" t="n">
-        <v>2375.633569763118</v>
+        <v>2369.733111831045</v>
       </c>
       <c r="Q15" t="n">
         <v>2559.158414770026</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>461.2223049696969</v>
+        <v>946.6521469394983</v>
       </c>
       <c r="C16" t="n">
-        <v>461.2223049696969</v>
+        <v>777.7159640115914</v>
       </c>
       <c r="D16" t="n">
-        <v>311.1056655573611</v>
+        <v>627.5993245992556</v>
       </c>
       <c r="E16" t="n">
-        <v>163.1925719749678</v>
+        <v>627.5993245992556</v>
       </c>
       <c r="F16" t="n">
-        <v>163.1925719749678</v>
+        <v>480.7093771013452</v>
       </c>
       <c r="G16" t="n">
-        <v>163.1925719749678</v>
+        <v>313.2195263087823</v>
       </c>
       <c r="H16" t="n">
-        <v>163.1925719749678</v>
+        <v>168.8959772029888</v>
       </c>
       <c r="I16" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J16" t="n">
-        <v>137.8564395441042</v>
+        <v>137.8564395441041</v>
       </c>
       <c r="K16" t="n">
-        <v>366.0962766674295</v>
+        <v>366.0962766674297</v>
       </c>
       <c r="L16" t="n">
-        <v>713.6911225626345</v>
+        <v>713.6911225626347</v>
       </c>
       <c r="M16" t="n">
         <v>1090.570274259995</v>
@@ -5455,31 +5455,31 @@
         <v>2050.612347030394</v>
       </c>
       <c r="Q16" t="n">
-        <v>2145.702392603945</v>
+        <v>2145.702392603946</v>
       </c>
       <c r="R16" t="n">
-        <v>2145.702392603945</v>
+        <v>2065.448552894419</v>
       </c>
       <c r="S16" t="n">
-        <v>2145.702392603945</v>
+        <v>1877.47443091507</v>
       </c>
       <c r="T16" t="n">
-        <v>1924.845807549631</v>
+        <v>1877.47443091507</v>
       </c>
       <c r="U16" t="n">
-        <v>1635.754558084331</v>
+        <v>1588.383181449771</v>
       </c>
       <c r="V16" t="n">
-        <v>1381.070069878444</v>
+        <v>1333.698693243884</v>
       </c>
       <c r="W16" t="n">
-        <v>1091.652899841484</v>
+        <v>1044.281523206923</v>
       </c>
       <c r="X16" t="n">
-        <v>863.6633489434668</v>
+        <v>946.6521469394983</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.8707697999366</v>
+        <v>946.6521469394983</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2047.231175662075</v>
+        <v>2122.897622196825</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.335100020301</v>
+        <v>1785.001546555051</v>
       </c>
       <c r="D17" t="n">
-        <v>1382.135842712189</v>
+        <v>1457.802289246938</v>
       </c>
       <c r="E17" t="n">
-        <v>1027.414031412583</v>
+        <v>1103.080477947331</v>
       </c>
       <c r="F17" t="n">
-        <v>647.4945679216125</v>
+        <v>723.1610144563616</v>
       </c>
       <c r="G17" t="n">
-        <v>339.6298209785543</v>
+        <v>339.6298209785544</v>
       </c>
       <c r="H17" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="I17" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J17" t="n">
-        <v>306.351900278032</v>
+        <v>306.3519002780326</v>
       </c>
       <c r="K17" t="n">
-        <v>699.3676445736544</v>
+        <v>699.3676445736555</v>
       </c>
       <c r="L17" t="n">
-        <v>1223.840190059682</v>
+        <v>1223.840190059683</v>
       </c>
       <c r="M17" t="n">
-        <v>1839.086389397695</v>
+        <v>1839.086389397697</v>
       </c>
       <c r="N17" t="n">
-        <v>2468.901723839928</v>
+        <v>2468.90172383993</v>
       </c>
       <c r="O17" t="n">
-        <v>3050.283223446043</v>
+        <v>3050.283223446046</v>
       </c>
       <c r="P17" t="n">
-        <v>3511.977881764534</v>
+        <v>3511.977881764537</v>
       </c>
       <c r="Q17" t="n">
-        <v>3810.518595819221</v>
+        <v>3810.518595819224</v>
       </c>
       <c r="R17" t="n">
-        <v>3898.768244081084</v>
+        <v>3898.768244081087</v>
       </c>
       <c r="S17" t="n">
-        <v>3898.768244081084</v>
+        <v>3830.363872345722</v>
       </c>
       <c r="T17" t="n">
-        <v>3725.935442083583</v>
+        <v>3830.363872345722</v>
       </c>
       <c r="U17" t="n">
-        <v>3725.935442083583</v>
+        <v>3607.937822148481</v>
       </c>
       <c r="V17" t="n">
-        <v>3425.938996038651</v>
+        <v>3501.605442573401</v>
       </c>
       <c r="W17" t="n">
-        <v>3104.236782067174</v>
+        <v>3179.903228601925</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.837465104732</v>
+        <v>2837.503911639483</v>
       </c>
       <c r="Y17" t="n">
-        <v>2402.764574427559</v>
+        <v>2478.431020962309</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>618.1651909194811</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9277359140256</v>
+        <v>458.9277359140257</v>
       </c>
       <c r="F18" t="n">
         <v>312.3931779409106</v>
@@ -5586,25 +5586,25 @@
         <v>176.2841263980093</v>
       </c>
       <c r="H18" t="n">
-        <v>88.23580690915016</v>
+        <v>88.2358069091502</v>
       </c>
       <c r="I18" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J18" t="n">
-        <v>77.97536488162167</v>
+        <v>195.1770178708367</v>
       </c>
       <c r="K18" t="n">
-        <v>77.97536488162167</v>
+        <v>473.6481351589631</v>
       </c>
       <c r="L18" t="n">
-        <v>492.8362307689245</v>
+        <v>894.4094589783402</v>
       </c>
       <c r="M18" t="n">
-        <v>1003.201717808889</v>
+        <v>1404.774946018305</v>
       </c>
       <c r="N18" t="n">
-        <v>1541.483705566646</v>
+        <v>1943.056933776063</v>
       </c>
       <c r="O18" t="n">
         <v>2011.68676724404</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>716.1780679029216</v>
+        <v>761.2766452321541</v>
       </c>
       <c r="C19" t="n">
-        <v>578.3083262736526</v>
+        <v>623.406903602885</v>
       </c>
       <c r="D19" t="n">
-        <v>459.2581281599548</v>
+        <v>504.3567054891871</v>
       </c>
       <c r="E19" t="n">
-        <v>387.5100532054314</v>
+        <v>387.5100532054315</v>
       </c>
       <c r="F19" t="n">
-        <v>387.5100532054314</v>
+        <v>387.5100532054315</v>
       </c>
       <c r="G19" t="n">
         <v>251.0866437115064</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8295359043508</v>
+        <v>137.829535904351</v>
       </c>
       <c r="I19" t="n">
-        <v>77.97536488162167</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J19" t="n">
-        <v>168.3046586608991</v>
+        <v>168.3046586608994</v>
       </c>
       <c r="K19" t="n">
-        <v>426.9927149010195</v>
+        <v>426.9927149010198</v>
       </c>
       <c r="L19" t="n">
-        <v>805.0357799130194</v>
+        <v>805.0357799130198</v>
       </c>
       <c r="M19" t="n">
-        <v>1212.363150727174</v>
+        <v>1212.363150727175</v>
       </c>
       <c r="N19" t="n">
-        <v>1616.163794102142</v>
+        <v>1616.163794102143</v>
       </c>
       <c r="O19" t="n">
-        <v>1975.447110347827</v>
+        <v>1975.447110347828</v>
       </c>
       <c r="P19" t="n">
         <v>2263.749880847959</v>
@@ -5695,28 +5695,28 @@
         <v>2389.288145538305</v>
       </c>
       <c r="R19" t="n">
-        <v>2340.100747127416</v>
+        <v>2385.19932445665</v>
       </c>
       <c r="S19" t="n">
-        <v>2183.193066446705</v>
+        <v>2228.291643775938</v>
       </c>
       <c r="T19" t="n">
-        <v>1993.402922691028</v>
+        <v>2038.501500020261</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.378114524367</v>
+        <v>1780.4766918536</v>
       </c>
       <c r="V19" t="n">
-        <v>1511.760067617118</v>
+        <v>1556.858644946351</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.409338878795</v>
+        <v>1298.507916208028</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.486229279416</v>
+        <v>1101.584806608648</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.7600914345235</v>
+        <v>911.858668763756</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>723.1610144563616</v>
       </c>
       <c r="G20" t="n">
-        <v>339.6298209785543</v>
+        <v>339.6298209785544</v>
       </c>
       <c r="H20" t="n">
-        <v>77.97536488162169</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="I20" t="n">
-        <v>77.97536488162169</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J20" t="n">
         <v>306.3519002780317</v>
       </c>
       <c r="K20" t="n">
-        <v>699.3676445736546</v>
+        <v>699.3676445736542</v>
       </c>
       <c r="L20" t="n">
         <v>1223.840190059682</v>
       </c>
       <c r="M20" t="n">
-        <v>1839.086389397695</v>
+        <v>1839.086389397696</v>
       </c>
       <c r="N20" t="n">
-        <v>2468.901723839928</v>
+        <v>2468.901723839929</v>
       </c>
       <c r="O20" t="n">
-        <v>3050.283223446043</v>
+        <v>3050.283223446044</v>
       </c>
       <c r="P20" t="n">
-        <v>3511.977881764534</v>
+        <v>3511.977881764536</v>
       </c>
       <c r="Q20" t="n">
-        <v>3810.518595819221</v>
+        <v>3810.518595819224</v>
       </c>
       <c r="R20" t="n">
-        <v>3898.768244081085</v>
+        <v>3898.768244081087</v>
       </c>
       <c r="S20" t="n">
-        <v>3841.327342047589</v>
+        <v>3841.327342047591</v>
       </c>
       <c r="T20" t="n">
-        <v>3668.494540050089</v>
+        <v>3668.494540050091</v>
       </c>
       <c r="U20" t="n">
-        <v>3446.068489852848</v>
+        <v>3446.068489852849</v>
       </c>
       <c r="V20" t="n">
-        <v>3146.072043807916</v>
+        <v>3146.072043807917</v>
       </c>
       <c r="W20" t="n">
-        <v>2824.369829836439</v>
+        <v>2824.36982983644</v>
       </c>
       <c r="X20" t="n">
-        <v>2481.970512873997</v>
+        <v>2481.970512873998</v>
       </c>
       <c r="Y20" t="n">
         <v>2122.897622196824</v>
@@ -5823,28 +5823,28 @@
         <v>176.2841263980093</v>
       </c>
       <c r="H21" t="n">
-        <v>88.23580690915017</v>
+        <v>88.2358069091502</v>
       </c>
       <c r="I21" t="n">
-        <v>77.97536488162169</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J21" t="n">
-        <v>195.1770178708366</v>
+        <v>195.1770178708367</v>
       </c>
       <c r="K21" t="n">
-        <v>473.6481351589628</v>
+        <v>473.6481351589631</v>
       </c>
       <c r="L21" t="n">
-        <v>894.4094589783397</v>
+        <v>894.4094589783402</v>
       </c>
       <c r="M21" t="n">
         <v>1404.774946018305</v>
       </c>
       <c r="N21" t="n">
-        <v>1943.056933776062</v>
+        <v>1730.909008505627</v>
       </c>
       <c r="O21" t="n">
-        <v>2413.259995453455</v>
+        <v>2201.112070183021</v>
       </c>
       <c r="P21" t="n">
         <v>2559.158414770026</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1001514314257</v>
+        <v>716.1780679029202</v>
       </c>
       <c r="C22" t="n">
-        <v>739.2304098021569</v>
+        <v>578.3083262736511</v>
       </c>
       <c r="D22" t="n">
-        <v>620.1802116884592</v>
+        <v>560.3260406657305</v>
       </c>
       <c r="E22" t="n">
-        <v>503.333559404704</v>
+        <v>443.4793883819752</v>
       </c>
       <c r="F22" t="n">
-        <v>387.5100532054314</v>
+        <v>327.6558821827026</v>
       </c>
       <c r="G22" t="n">
-        <v>251.0866437115064</v>
+        <v>191.2324726887775</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8295359043508</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="I22" t="n">
-        <v>77.97536488162169</v>
+        <v>77.97536488162174</v>
       </c>
       <c r="J22" t="n">
         <v>168.3046586608992</v>
@@ -5914,16 +5914,16 @@
         <v>426.9927149010196</v>
       </c>
       <c r="L22" t="n">
-        <v>805.0357799130193</v>
+        <v>805.0357799130197</v>
       </c>
       <c r="M22" t="n">
-        <v>1212.363150727174</v>
+        <v>1212.363150727175</v>
       </c>
       <c r="N22" t="n">
         <v>1616.163794102142</v>
       </c>
       <c r="O22" t="n">
-        <v>1975.447110347827</v>
+        <v>1975.447110347828</v>
       </c>
       <c r="P22" t="n">
         <v>2263.749880847959</v>
@@ -5932,28 +5932,28 @@
         <v>2389.288145538305</v>
       </c>
       <c r="R22" t="n">
-        <v>2350.440807124318</v>
+        <v>2340.100747127416</v>
       </c>
       <c r="S22" t="n">
-        <v>2193.533126443607</v>
+        <v>2183.193066446705</v>
       </c>
       <c r="T22" t="n">
-        <v>2003.74298268793</v>
+        <v>1993.402922691028</v>
       </c>
       <c r="U22" t="n">
-        <v>1745.718174521269</v>
+        <v>1735.378114524367</v>
       </c>
       <c r="V22" t="n">
-        <v>1522.10012761402</v>
+        <v>1511.760067617117</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.749398875697</v>
+        <v>1253.409338878795</v>
       </c>
       <c r="X22" t="n">
-        <v>1066.826289276318</v>
+        <v>1056.486229279414</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.1001514314257</v>
+        <v>866.7600914345221</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2126.768596785167</v>
+        <v>2126.768596785168</v>
       </c>
       <c r="C23" t="n">
-        <v>1788.872521143393</v>
+        <v>1788.872521143394</v>
       </c>
       <c r="D23" t="n">
         <v>1461.673263835281</v>
       </c>
       <c r="E23" t="n">
-        <v>1106.951452535674</v>
+        <v>1106.951452535675</v>
       </c>
       <c r="F23" t="n">
-        <v>727.0319890447043</v>
+        <v>727.0319890447049</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8008411519927</v>
+        <v>343.8008411519928</v>
       </c>
       <c r="H23" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="I23" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="J23" t="n">
-        <v>338.5549829976467</v>
+        <v>338.554982997648</v>
       </c>
       <c r="K23" t="n">
-        <v>768.9781291087927</v>
+        <v>768.9781291087952</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.857864335714</v>
+        <v>1339.857864335716</v>
       </c>
       <c r="M23" t="n">
-        <v>2006.741003968648</v>
+        <v>2006.74100396865</v>
       </c>
       <c r="N23" t="n">
-        <v>2689.028818384533</v>
+        <v>2689.028818384535</v>
       </c>
       <c r="O23" t="n">
-        <v>3319.958592885416</v>
+        <v>3319.958592885418</v>
       </c>
       <c r="P23" t="n">
-        <v>3823.941557486736</v>
+        <v>3823.941557486739</v>
       </c>
       <c r="Q23" t="n">
-        <v>4154.239028420101</v>
+        <v>4154.239028420103</v>
       </c>
       <c r="R23" t="n">
-        <v>4260.96134517086</v>
+        <v>4260.961345170862</v>
       </c>
       <c r="S23" t="n">
-        <v>4199.394262205854</v>
+        <v>4199.394262205856</v>
       </c>
       <c r="T23" t="n">
-        <v>4027.874909757109</v>
+        <v>4027.87490975711</v>
       </c>
       <c r="U23" t="n">
-        <v>3805.472863206675</v>
+        <v>3805.472863206677</v>
       </c>
       <c r="V23" t="n">
-        <v>3505.476417161743</v>
+        <v>3505.476417161744</v>
       </c>
       <c r="W23" t="n">
-        <v>3183.774203190266</v>
+        <v>3183.774203190268</v>
       </c>
       <c r="X23" t="n">
-        <v>2841.374886227824</v>
+        <v>2841.374886227825</v>
       </c>
       <c r="Y23" t="n">
-        <v>2482.301995550651</v>
+        <v>2482.301995550652</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>176.4502102823733</v>
       </c>
       <c r="H24" t="n">
-        <v>89.95235512485358</v>
+        <v>89.95235512485361</v>
       </c>
       <c r="I24" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="J24" t="n">
-        <v>85.21922690341721</v>
+        <v>217.2864207524741</v>
       </c>
       <c r="K24" t="n">
-        <v>85.21922690341721</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L24" t="n">
-        <v>530.3557908351029</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M24" t="n">
-        <v>1080.588614371659</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79310839411</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="O24" t="n">
-        <v>2167.43226844316</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.524382398151</v>
+        <v>2493.619493323062</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.524382398151</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>863.1740766000048</v>
+        <v>878.9653028379822</v>
       </c>
       <c r="C25" t="n">
-        <v>725.3043349707358</v>
+        <v>741.0955612087131</v>
       </c>
       <c r="D25" t="n">
-        <v>606.254136857038</v>
+        <v>622.0453630950152</v>
       </c>
       <c r="E25" t="n">
-        <v>505.1987108112597</v>
+        <v>505.1987108112599</v>
       </c>
       <c r="F25" t="n">
-        <v>389.3752046119872</v>
+        <v>389.3752046119873</v>
       </c>
       <c r="G25" t="n">
         <v>253.0863852380978</v>
       </c>
       <c r="H25" t="n">
-        <v>141.0259059527129</v>
+        <v>141.0259059527131</v>
       </c>
       <c r="I25" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="J25" t="n">
-        <v>184.8746832916281</v>
+        <v>184.874683291628</v>
       </c>
       <c r="K25" t="n">
         <v>458.8884895821749</v>
       </c>
       <c r="L25" t="n">
-        <v>856.5432381876551</v>
+        <v>856.543238187655</v>
       </c>
       <c r="M25" t="n">
         <v>1284.548379590191</v>
@@ -6163,34 +6163,34 @@
         <v>2086.463568661772</v>
       </c>
       <c r="P25" t="n">
-        <v>2390.720468948357</v>
+        <v>2390.720468948356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2527.304546135925</v>
+        <v>2527.304546135923</v>
       </c>
       <c r="R25" t="n">
-        <v>2484.168808940453</v>
+        <v>2499.960035178432</v>
       </c>
       <c r="S25" t="n">
-        <v>2329.606666987998</v>
+        <v>2345.397893225977</v>
       </c>
       <c r="T25" t="n">
-        <v>2140.391590108837</v>
+        <v>2156.182816346815</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.374123221451</v>
+        <v>1898.165349459428</v>
       </c>
       <c r="V25" t="n">
-        <v>1658.756076314202</v>
+        <v>1674.547302552179</v>
       </c>
       <c r="W25" t="n">
-        <v>1400.405347575878</v>
+        <v>1416.196573813856</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.482237976499</v>
+        <v>1219.273464214476</v>
       </c>
       <c r="Y25" t="n">
-        <v>1013.756100131607</v>
+        <v>1029.547326369584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1788.872521143394</v>
       </c>
       <c r="D26" t="n">
-        <v>1461.673263835282</v>
+        <v>1461.673263835281</v>
       </c>
       <c r="E26" t="n">
         <v>1106.951452535675</v>
       </c>
       <c r="F26" t="n">
-        <v>727.0319890447058</v>
+        <v>727.0319890447054</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8008411519927</v>
+        <v>343.8008411519928</v>
       </c>
       <c r="H26" t="n">
         <v>85.21922690341724</v>
@@ -6227,22 +6227,22 @@
         <v>338.554982997648</v>
       </c>
       <c r="K26" t="n">
-        <v>768.9781291087934</v>
+        <v>768.9781291087952</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.857864335715</v>
+        <v>1339.857864335716</v>
       </c>
       <c r="M26" t="n">
-        <v>2006.741003968648</v>
+        <v>2006.74100396865</v>
       </c>
       <c r="N26" t="n">
-        <v>2689.028818384533</v>
+        <v>2689.028818384535</v>
       </c>
       <c r="O26" t="n">
-        <v>3319.958592885416</v>
+        <v>3319.958592885418</v>
       </c>
       <c r="P26" t="n">
-        <v>3823.941557486738</v>
+        <v>3823.941557486739</v>
       </c>
       <c r="Q26" t="n">
         <v>4154.239028420103</v>
@@ -6257,7 +6257,7 @@
         <v>4027.87490975711</v>
       </c>
       <c r="U26" t="n">
-        <v>3805.472863206676</v>
+        <v>3805.472863206677</v>
       </c>
       <c r="V26" t="n">
         <v>3505.476417161744</v>
@@ -6303,25 +6303,25 @@
         <v>85.21922690341724</v>
       </c>
       <c r="J27" t="n">
-        <v>85.21922690341724</v>
+        <v>217.2864207524741</v>
       </c>
       <c r="K27" t="n">
-        <v>85.21922690341724</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L27" t="n">
-        <v>530.3557908351029</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M27" t="n">
-        <v>1080.588614371659</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.79310839411</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="O27" t="n">
-        <v>2167.43226844316</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.524382398151</v>
+        <v>2493.619493323062</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.524382398151</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>863.1740766000054</v>
+        <v>878.9653028379821</v>
       </c>
       <c r="C28" t="n">
-        <v>725.3043349707364</v>
+        <v>741.0955612087131</v>
       </c>
       <c r="D28" t="n">
-        <v>606.2541368570386</v>
+        <v>622.0453630950152</v>
       </c>
       <c r="E28" t="n">
-        <v>489.4074845732834</v>
+        <v>505.19871081126</v>
       </c>
       <c r="F28" t="n">
-        <v>389.3752046119872</v>
+        <v>389.3752046119874</v>
       </c>
       <c r="G28" t="n">
-        <v>253.0863852380978</v>
+        <v>253.0863852380979</v>
       </c>
       <c r="H28" t="n">
-        <v>141.0259059527129</v>
+        <v>141.025905952713</v>
       </c>
       <c r="I28" t="n">
         <v>85.21922690341724</v>
       </c>
       <c r="J28" t="n">
-        <v>184.8746832916281</v>
+        <v>184.8746832916279</v>
       </c>
       <c r="K28" t="n">
-        <v>458.8884895821752</v>
+        <v>458.8884895821748</v>
       </c>
       <c r="L28" t="n">
-        <v>856.5432381876554</v>
+        <v>856.543238187655</v>
       </c>
       <c r="M28" t="n">
         <v>1284.548379590191</v>
@@ -6397,37 +6397,37 @@
         <v>1708.535122386038</v>
       </c>
       <c r="O28" t="n">
-        <v>2086.463568661773</v>
+        <v>2086.463568661772</v>
       </c>
       <c r="P28" t="n">
-        <v>2390.720468948358</v>
+        <v>2390.720468948357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2527.304546135925</v>
+        <v>2527.304546135924</v>
       </c>
       <c r="R28" t="n">
-        <v>2484.168808940453</v>
+        <v>2499.960035178431</v>
       </c>
       <c r="S28" t="n">
-        <v>2329.606666987998</v>
+        <v>2345.397893225976</v>
       </c>
       <c r="T28" t="n">
-        <v>2140.391590108837</v>
+        <v>2156.182816346814</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.374123221451</v>
+        <v>1898.165349459427</v>
       </c>
       <c r="V28" t="n">
-        <v>1658.756076314202</v>
+        <v>1674.547302552179</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.405347575879</v>
+        <v>1416.196573813856</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.482237976499</v>
+        <v>1219.273464214476</v>
       </c>
       <c r="Y28" t="n">
-        <v>1013.756100131607</v>
+        <v>1029.547326369584</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>338.554982997648</v>
       </c>
       <c r="K29" t="n">
-        <v>768.9781291087952</v>
+        <v>768.9781291087934</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.857864335717</v>
+        <v>1339.857864335715</v>
       </c>
       <c r="M29" t="n">
-        <v>2006.74100396865</v>
+        <v>2006.741003968648</v>
       </c>
       <c r="N29" t="n">
-        <v>2689.028818384535</v>
+        <v>2689.028818384533</v>
       </c>
       <c r="O29" t="n">
-        <v>3319.958592885418</v>
+        <v>3319.958592885416</v>
       </c>
       <c r="P29" t="n">
-        <v>3823.941557486739</v>
+        <v>3823.941557486738</v>
       </c>
       <c r="Q29" t="n">
-        <v>4154.239028420104</v>
+        <v>4154.239028420103</v>
       </c>
       <c r="R29" t="n">
         <v>4260.961345170862</v>
@@ -6540,28 +6540,28 @@
         <v>85.21922690341724</v>
       </c>
       <c r="J30" t="n">
-        <v>85.21922690341724</v>
+        <v>217.2864207524741</v>
       </c>
       <c r="K30" t="n">
-        <v>85.21922690341724</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L30" t="n">
-        <v>295.7586373304273</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M30" t="n">
-        <v>845.9914608669835</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N30" t="n">
-        <v>1425.195954889434</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="O30" t="n">
-        <v>1932.835114938484</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="P30" t="n">
-        <v>2320.927228893476</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.437332964477</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="R30" t="n">
         <v>2555.524382398151</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>863.1740766000053</v>
+        <v>863.1740766000046</v>
       </c>
       <c r="C31" t="n">
-        <v>725.3043349707362</v>
+        <v>725.3043349707355</v>
       </c>
       <c r="D31" t="n">
-        <v>606.2541368570384</v>
+        <v>606.2541368570376</v>
       </c>
       <c r="E31" t="n">
-        <v>505.1987108112599</v>
+        <v>489.4074845732823</v>
       </c>
       <c r="F31" t="n">
-        <v>389.3752046119874</v>
+        <v>373.5839783740098</v>
       </c>
       <c r="G31" t="n">
-        <v>253.0863852380979</v>
+        <v>237.2951590001205</v>
       </c>
       <c r="H31" t="n">
         <v>141.025905952713</v>
@@ -6622,7 +6622,7 @@
         <v>184.874683291628</v>
       </c>
       <c r="K31" t="n">
-        <v>458.888489582175</v>
+        <v>458.8884895821749</v>
       </c>
       <c r="L31" t="n">
         <v>856.5432381876551</v>
@@ -6649,22 +6649,22 @@
         <v>2329.606666987997</v>
       </c>
       <c r="T31" t="n">
-        <v>2140.391590108836</v>
+        <v>2140.391590108837</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.374123221451</v>
+        <v>1882.37412322145</v>
       </c>
       <c r="V31" t="n">
-        <v>1658.756076314202</v>
+        <v>1658.756076314201</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.405347575879</v>
+        <v>1400.405347575878</v>
       </c>
       <c r="X31" t="n">
         <v>1203.482237976499</v>
       </c>
       <c r="Y31" t="n">
-        <v>1013.756100131607</v>
+        <v>1013.756100131606</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2126.768596785166</v>
+        <v>2126.768596785168</v>
       </c>
       <c r="C32" t="n">
-        <v>1788.872521143393</v>
+        <v>1788.872521143394</v>
       </c>
       <c r="D32" t="n">
-        <v>1461.67326383528</v>
+        <v>1461.673263835281</v>
       </c>
       <c r="E32" t="n">
-        <v>1106.951452535674</v>
+        <v>1106.951452535675</v>
       </c>
       <c r="F32" t="n">
-        <v>727.0319890447041</v>
+        <v>727.0319890447049</v>
       </c>
       <c r="G32" t="n">
-        <v>343.8008411519927</v>
+        <v>343.8008411519928</v>
       </c>
       <c r="H32" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="I32" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="J32" t="n">
-        <v>338.5549829976472</v>
+        <v>338.554982997648</v>
       </c>
       <c r="K32" t="n">
-        <v>768.9781291087932</v>
+        <v>768.9781291087934</v>
       </c>
       <c r="L32" t="n">
         <v>1339.857864335715</v>
@@ -6710,40 +6710,40 @@
         <v>2006.741003968648</v>
       </c>
       <c r="N32" t="n">
-        <v>2689.028818384532</v>
+        <v>2689.028818384533</v>
       </c>
       <c r="O32" t="n">
-        <v>3319.958592885415</v>
+        <v>3319.958592885416</v>
       </c>
       <c r="P32" t="n">
-        <v>3823.941557486736</v>
+        <v>3823.941557486738</v>
       </c>
       <c r="Q32" t="n">
-        <v>4154.239028420101</v>
+        <v>4154.239028420103</v>
       </c>
       <c r="R32" t="n">
-        <v>4260.96134517086</v>
+        <v>4260.961345170862</v>
       </c>
       <c r="S32" t="n">
-        <v>4199.394262205854</v>
+        <v>4199.394262205856</v>
       </c>
       <c r="T32" t="n">
-        <v>4027.874909757109</v>
+        <v>4027.87490975711</v>
       </c>
       <c r="U32" t="n">
-        <v>3805.472863206675</v>
+        <v>3805.472863206676</v>
       </c>
       <c r="V32" t="n">
-        <v>3505.476417161742</v>
+        <v>3505.476417161743</v>
       </c>
       <c r="W32" t="n">
-        <v>3183.774203190266</v>
+        <v>3183.774203190267</v>
       </c>
       <c r="X32" t="n">
-        <v>2841.374886227824</v>
+        <v>2841.374886227825</v>
       </c>
       <c r="Y32" t="n">
-        <v>2482.30199555065</v>
+        <v>2482.301995550652</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>176.4502102823733</v>
       </c>
       <c r="H33" t="n">
-        <v>89.95235512485358</v>
+        <v>89.95235512485361</v>
       </c>
       <c r="I33" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="J33" t="n">
-        <v>85.21922690341721</v>
+        <v>217.2864207524741</v>
       </c>
       <c r="K33" t="n">
-        <v>85.21922690341721</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L33" t="n">
-        <v>530.3557908351029</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M33" t="n">
-        <v>1080.588614371659</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.79310839411</v>
+        <v>2047.885222349101</v>
       </c>
       <c r="O33" t="n">
-        <v>2167.43226844316</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="P33" t="n">
         <v>2555.524382398151</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>863.1740766000048</v>
+        <v>878.9653028379821</v>
       </c>
       <c r="C34" t="n">
-        <v>725.3043349707359</v>
+        <v>741.0955612087131</v>
       </c>
       <c r="D34" t="n">
-        <v>606.2541368570382</v>
+        <v>622.0453630950152</v>
       </c>
       <c r="E34" t="n">
-        <v>489.407484573283</v>
+        <v>505.1987108112599</v>
       </c>
       <c r="F34" t="n">
-        <v>389.3752046119872</v>
+        <v>389.3752046119874</v>
       </c>
       <c r="G34" t="n">
-        <v>253.0863852380978</v>
+        <v>253.0863852380979</v>
       </c>
       <c r="H34" t="n">
-        <v>141.0259059527129</v>
+        <v>141.025905952713</v>
       </c>
       <c r="I34" t="n">
-        <v>85.21922690341721</v>
+        <v>85.21922690341724</v>
       </c>
       <c r="J34" t="n">
         <v>184.8746832916279</v>
@@ -6862,7 +6862,7 @@
         <v>458.8884895821749</v>
       </c>
       <c r="L34" t="n">
-        <v>856.5432381876552</v>
+        <v>856.5432381876551</v>
       </c>
       <c r="M34" t="n">
         <v>1284.548379590191</v>
@@ -6874,34 +6874,34 @@
         <v>2086.463568661773</v>
       </c>
       <c r="P34" t="n">
-        <v>2390.720468948358</v>
+        <v>2390.720468948357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2527.304546135925</v>
+        <v>2527.304546135924</v>
       </c>
       <c r="R34" t="n">
-        <v>2484.168808940453</v>
+        <v>2484.168808940452</v>
       </c>
       <c r="S34" t="n">
-        <v>2329.606666987998</v>
+        <v>2345.397893225975</v>
       </c>
       <c r="T34" t="n">
-        <v>2140.391590108837</v>
+        <v>2156.182816346814</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.37412322145</v>
+        <v>1898.165349459427</v>
       </c>
       <c r="V34" t="n">
-        <v>1658.756076314201</v>
+        <v>1674.547302552179</v>
       </c>
       <c r="W34" t="n">
-        <v>1400.405347575878</v>
+        <v>1416.196573813856</v>
       </c>
       <c r="X34" t="n">
-        <v>1203.482237976499</v>
+        <v>1219.273464214476</v>
       </c>
       <c r="Y34" t="n">
-        <v>1013.756100131607</v>
+        <v>1029.547326369584</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>85.21922690341724</v>
       </c>
       <c r="J35" t="n">
-        <v>338.554982997648</v>
+        <v>338.5549829976467</v>
       </c>
       <c r="K35" t="n">
-        <v>768.9781291087938</v>
+        <v>768.9781291087927</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.857864335715</v>
+        <v>1339.857864335714</v>
       </c>
       <c r="M35" t="n">
-        <v>2006.741003968649</v>
+        <v>2006.741003968648</v>
       </c>
       <c r="N35" t="n">
-        <v>2689.028818384534</v>
+        <v>2689.028818384533</v>
       </c>
       <c r="O35" t="n">
-        <v>3319.958592885418</v>
+        <v>3319.958592885416</v>
       </c>
       <c r="P35" t="n">
         <v>3823.941557486738</v>
@@ -7014,22 +7014,22 @@
         <v>85.21922690341724</v>
       </c>
       <c r="J36" t="n">
-        <v>85.21922690341724</v>
+        <v>217.2864207524741</v>
       </c>
       <c r="K36" t="n">
-        <v>85.21922690341724</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L36" t="n">
-        <v>540.1441735938993</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M36" t="n">
-        <v>1090.376997130455</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.79310839411</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="O36" t="n">
-        <v>2167.43226844316</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="P36" t="n">
         <v>2555.524382398151</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>863.1740766000044</v>
+        <v>863.1740766000041</v>
       </c>
       <c r="C37" t="n">
-        <v>725.3043349707352</v>
+        <v>725.3043349707351</v>
       </c>
       <c r="D37" t="n">
-        <v>606.2541368570373</v>
+        <v>606.2541368570372</v>
       </c>
       <c r="E37" t="n">
         <v>505.1987108112598</v>
@@ -7096,10 +7096,10 @@
         <v>184.874683291628</v>
       </c>
       <c r="K37" t="n">
-        <v>458.888489582175</v>
+        <v>458.8884895821749</v>
       </c>
       <c r="L37" t="n">
-        <v>856.5432381876552</v>
+        <v>856.5432381876551</v>
       </c>
       <c r="M37" t="n">
         <v>1284.548379590191</v>
@@ -7117,13 +7117,13 @@
         <v>2527.304546135924</v>
       </c>
       <c r="R37" t="n">
-        <v>2484.168808940452</v>
+        <v>2484.168808940453</v>
       </c>
       <c r="S37" t="n">
-        <v>2329.606666987997</v>
+        <v>2329.606666987998</v>
       </c>
       <c r="T37" t="n">
-        <v>2140.391590108836</v>
+        <v>2140.391590108837</v>
       </c>
       <c r="U37" t="n">
         <v>1882.37412322145</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2126.768596785168</v>
+        <v>2126.768596785167</v>
       </c>
       <c r="C38" t="n">
-        <v>1788.872521143395</v>
+        <v>1788.872521143393</v>
       </c>
       <c r="D38" t="n">
-        <v>1461.673263835282</v>
+        <v>1461.67326383528</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.951452535675</v>
+        <v>1106.951452535674</v>
       </c>
       <c r="F38" t="n">
-        <v>727.0319890447054</v>
+        <v>727.0319890447045</v>
       </c>
       <c r="G38" t="n">
-        <v>343.8008411519928</v>
+        <v>343.8008411519927</v>
       </c>
       <c r="H38" t="n">
-        <v>85.21922690341724</v>
+        <v>85.21922690341721</v>
       </c>
       <c r="I38" t="n">
-        <v>85.21922690341724</v>
+        <v>85.21922690341721</v>
       </c>
       <c r="J38" t="n">
-        <v>338.554982997648</v>
+        <v>338.5549829976467</v>
       </c>
       <c r="K38" t="n">
-        <v>768.9781291087934</v>
+        <v>768.9781291087927</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.857864335715</v>
+        <v>1339.857864335714</v>
       </c>
       <c r="M38" t="n">
         <v>2006.741003968648</v>
@@ -7190,34 +7190,34 @@
         <v>3319.958592885416</v>
       </c>
       <c r="P38" t="n">
-        <v>3823.941557486738</v>
+        <v>3823.941557486736</v>
       </c>
       <c r="Q38" t="n">
-        <v>4154.239028420103</v>
+        <v>4154.239028420101</v>
       </c>
       <c r="R38" t="n">
-        <v>4260.961345170862</v>
+        <v>4260.96134517086</v>
       </c>
       <c r="S38" t="n">
-        <v>4199.394262205856</v>
+        <v>4199.394262205854</v>
       </c>
       <c r="T38" t="n">
-        <v>4027.87490975711</v>
+        <v>4027.874909757109</v>
       </c>
       <c r="U38" t="n">
-        <v>3805.472863206677</v>
+        <v>3805.472863206675</v>
       </c>
       <c r="V38" t="n">
-        <v>3505.476417161744</v>
+        <v>3505.476417161743</v>
       </c>
       <c r="W38" t="n">
-        <v>3183.774203190268</v>
+        <v>3183.774203190266</v>
       </c>
       <c r="X38" t="n">
-        <v>2841.374886227826</v>
+        <v>2841.374886227824</v>
       </c>
       <c r="Y38" t="n">
-        <v>2482.301995550652</v>
+        <v>2482.301995550651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>176.4502102823733</v>
       </c>
       <c r="H39" t="n">
-        <v>89.95235512485361</v>
+        <v>89.95235512485358</v>
       </c>
       <c r="I39" t="n">
-        <v>85.21922690341724</v>
+        <v>85.21922690341721</v>
       </c>
       <c r="J39" t="n">
-        <v>159.6442637335046</v>
+        <v>217.286420752474</v>
       </c>
       <c r="K39" t="n">
-        <v>463.5229580996123</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L39" t="n">
-        <v>918.4479047900943</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M39" t="n">
-        <v>1468.680728326651</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N39" t="n">
-        <v>2047.885222349101</v>
+        <v>2105.527379368071</v>
       </c>
       <c r="O39" t="n">
         <v>2555.524382398151</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>863.1740766000046</v>
+        <v>863.1740766000054</v>
       </c>
       <c r="C40" t="n">
-        <v>725.3043349707355</v>
+        <v>725.3043349707364</v>
       </c>
       <c r="D40" t="n">
-        <v>606.2541368570376</v>
+        <v>606.2541368570386</v>
       </c>
       <c r="E40" t="n">
-        <v>489.4074845732823</v>
+        <v>489.4074845732834</v>
       </c>
       <c r="F40" t="n">
-        <v>373.5839783740098</v>
+        <v>373.5839783740109</v>
       </c>
       <c r="G40" t="n">
-        <v>237.2951590001203</v>
+        <v>237.2951590001215</v>
       </c>
       <c r="H40" t="n">
-        <v>125.2346797147356</v>
+        <v>125.2346797147366</v>
       </c>
       <c r="I40" t="n">
-        <v>85.21922690341724</v>
+        <v>85.21922690341721</v>
       </c>
       <c r="J40" t="n">
-        <v>184.874683291628</v>
+        <v>184.8746832916281</v>
       </c>
       <c r="K40" t="n">
-        <v>458.888489582175</v>
+        <v>458.8884895821747</v>
       </c>
       <c r="L40" t="n">
-        <v>856.5432381876552</v>
+        <v>856.543238187655</v>
       </c>
       <c r="M40" t="n">
         <v>1284.548379590191</v>
@@ -7369,13 +7369,13 @@
         <v>1658.756076314201</v>
       </c>
       <c r="W40" t="n">
-        <v>1400.405347575878</v>
+        <v>1400.405347575879</v>
       </c>
       <c r="X40" t="n">
         <v>1203.482237976499</v>
       </c>
       <c r="Y40" t="n">
-        <v>1013.756100131606</v>
+        <v>1013.756100131607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2126.768596785168</v>
+        <v>2126.768596785167</v>
       </c>
       <c r="C41" t="n">
-        <v>1788.872521143395</v>
+        <v>1788.872521143393</v>
       </c>
       <c r="D41" t="n">
-        <v>1461.673263835282</v>
+        <v>1461.67326383528</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.951452535675</v>
+        <v>1106.951452535674</v>
       </c>
       <c r="F41" t="n">
-        <v>727.0319890447054</v>
+        <v>727.0319890447045</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8008411519928</v>
+        <v>343.8008411519927</v>
       </c>
       <c r="H41" t="n">
         <v>85.21922690341724</v>
@@ -7412,22 +7412,22 @@
         <v>338.554982997648</v>
       </c>
       <c r="K41" t="n">
-        <v>768.9781291087934</v>
+        <v>768.9781291087957</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.857864335715</v>
+        <v>1339.857864335717</v>
       </c>
       <c r="M41" t="n">
-        <v>2006.741003968648</v>
+        <v>2006.74100396865</v>
       </c>
       <c r="N41" t="n">
-        <v>2689.028818384533</v>
+        <v>2689.028818384535</v>
       </c>
       <c r="O41" t="n">
-        <v>3319.958592885416</v>
+        <v>3319.958592885418</v>
       </c>
       <c r="P41" t="n">
-        <v>3823.941557486738</v>
+        <v>3823.941557486739</v>
       </c>
       <c r="Q41" t="n">
         <v>4154.239028420103</v>
@@ -7442,19 +7442,19 @@
         <v>4027.87490975711</v>
       </c>
       <c r="U41" t="n">
-        <v>3805.472863206677</v>
+        <v>3805.472863206675</v>
       </c>
       <c r="V41" t="n">
-        <v>3505.476417161744</v>
+        <v>3505.476417161743</v>
       </c>
       <c r="W41" t="n">
-        <v>3183.774203190268</v>
+        <v>3183.774203190266</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.374886227826</v>
+        <v>2841.374886227824</v>
       </c>
       <c r="Y41" t="n">
-        <v>2482.301995550652</v>
+        <v>2482.301995550651</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>85.21922690341724</v>
       </c>
       <c r="J42" t="n">
-        <v>159.6442637335046</v>
+        <v>217.2864207524741</v>
       </c>
       <c r="K42" t="n">
-        <v>463.5229580996123</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L42" t="n">
-        <v>918.4479047900943</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M42" t="n">
-        <v>1468.680728326651</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N42" t="n">
         <v>2047.885222349101</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>878.9653028379821</v>
+        <v>878.9653028379817</v>
       </c>
       <c r="C43" t="n">
-        <v>741.095561208713</v>
+        <v>741.0955612087126</v>
       </c>
       <c r="D43" t="n">
-        <v>622.0453630950151</v>
+        <v>622.0453630950149</v>
       </c>
       <c r="E43" t="n">
-        <v>505.1987108112598</v>
+        <v>505.1987108112597</v>
       </c>
       <c r="F43" t="n">
-        <v>389.3752046119873</v>
+        <v>389.3752046119872</v>
       </c>
       <c r="G43" t="n">
-        <v>253.0863852380979</v>
+        <v>253.0863852380978</v>
       </c>
       <c r="H43" t="n">
-        <v>141.0259059527129</v>
+        <v>141.025905952713</v>
       </c>
       <c r="I43" t="n">
         <v>85.21922690341724</v>
       </c>
       <c r="J43" t="n">
-        <v>184.874683291628</v>
+        <v>184.8746832916281</v>
       </c>
       <c r="K43" t="n">
-        <v>458.8884895821749</v>
+        <v>458.8884895821751</v>
       </c>
       <c r="L43" t="n">
-        <v>856.5432381876551</v>
+        <v>856.5432381876553</v>
       </c>
       <c r="M43" t="n">
         <v>1284.548379590191</v>
@@ -7591,22 +7591,22 @@
         <v>2527.304546135924</v>
       </c>
       <c r="R43" t="n">
-        <v>2484.168808940452</v>
+        <v>2499.960035178429</v>
       </c>
       <c r="S43" t="n">
-        <v>2329.606666987997</v>
+        <v>2345.397893225974</v>
       </c>
       <c r="T43" t="n">
-        <v>2140.391590108836</v>
+        <v>2156.182816346813</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.37412322145</v>
+        <v>1898.165349459427</v>
       </c>
       <c r="V43" t="n">
         <v>1674.547302552178</v>
       </c>
       <c r="W43" t="n">
-        <v>1416.196573813856</v>
+        <v>1416.196573813855</v>
       </c>
       <c r="X43" t="n">
         <v>1219.273464214476</v>
@@ -7634,7 +7634,7 @@
         <v>1106.951452535675</v>
       </c>
       <c r="F44" t="n">
-        <v>727.0319890447054</v>
+        <v>727.0319890447049</v>
       </c>
       <c r="G44" t="n">
         <v>343.8008411519928</v>
@@ -7646,22 +7646,22 @@
         <v>85.21922690341724</v>
       </c>
       <c r="J44" t="n">
-        <v>338.5549829976482</v>
+        <v>338.554982997648</v>
       </c>
       <c r="K44" t="n">
-        <v>768.9781291087942</v>
+        <v>768.9781291087934</v>
       </c>
       <c r="L44" t="n">
         <v>1339.857864335715</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.741003968649</v>
+        <v>2006.741003968648</v>
       </c>
       <c r="N44" t="n">
-        <v>2689.028818384534</v>
+        <v>2689.028818384533</v>
       </c>
       <c r="O44" t="n">
-        <v>3319.958592885417</v>
+        <v>3319.958592885416</v>
       </c>
       <c r="P44" t="n">
         <v>3823.941557486738</v>
@@ -7682,13 +7682,13 @@
         <v>3805.472863206677</v>
       </c>
       <c r="V44" t="n">
-        <v>3505.476417161744</v>
+        <v>3505.476417161743</v>
       </c>
       <c r="W44" t="n">
-        <v>3183.774203190268</v>
+        <v>3183.774203190267</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.374886227826</v>
+        <v>2841.374886227825</v>
       </c>
       <c r="Y44" t="n">
         <v>2482.301995550652</v>
@@ -7728,25 +7728,25 @@
         <v>217.2864207524741</v>
       </c>
       <c r="K45" t="n">
-        <v>217.2864207524741</v>
+        <v>521.1651151185818</v>
       </c>
       <c r="L45" t="n">
-        <v>295.7586373304273</v>
+        <v>976.0900618090639</v>
       </c>
       <c r="M45" t="n">
-        <v>845.9914608669835</v>
+        <v>1526.32288534562</v>
       </c>
       <c r="N45" t="n">
-        <v>1425.195954889434</v>
+        <v>2047.885222349101</v>
       </c>
       <c r="O45" t="n">
-        <v>1932.835114938484</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="P45" t="n">
-        <v>2320.927228893476</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.437332964477</v>
+        <v>2555.524382398151</v>
       </c>
       <c r="R45" t="n">
         <v>2555.524382398151</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>863.1740766000048</v>
+        <v>863.1740766000028</v>
       </c>
       <c r="C46" t="n">
-        <v>725.3043349707357</v>
+        <v>725.3043349707336</v>
       </c>
       <c r="D46" t="n">
-        <v>622.0453630950152</v>
+        <v>606.2541368570356</v>
       </c>
       <c r="E46" t="n">
-        <v>505.19871081126</v>
+        <v>489.4074845732803</v>
       </c>
       <c r="F46" t="n">
-        <v>389.3752046119874</v>
+        <v>389.3752046119876</v>
       </c>
       <c r="G46" t="n">
-        <v>253.0863852380979</v>
+        <v>253.086385238098</v>
       </c>
       <c r="H46" t="n">
-        <v>141.025905952713</v>
+        <v>141.0259059527131</v>
       </c>
       <c r="I46" t="n">
         <v>85.21922690341724</v>
@@ -7807,25 +7807,25 @@
         <v>184.8746832916279</v>
       </c>
       <c r="K46" t="n">
-        <v>458.8884895821749</v>
+        <v>458.8884895821748</v>
       </c>
       <c r="L46" t="n">
-        <v>856.5432381876551</v>
+        <v>856.5432381876547</v>
       </c>
       <c r="M46" t="n">
-        <v>1284.548379590191</v>
+        <v>1284.54837959019</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.535122386038</v>
+        <v>1708.535122386037</v>
       </c>
       <c r="O46" t="n">
         <v>2086.463568661772</v>
       </c>
       <c r="P46" t="n">
-        <v>2390.720468948357</v>
+        <v>2390.720468948356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2527.304546135924</v>
+        <v>2527.304546135923</v>
       </c>
       <c r="R46" t="n">
         <v>2484.168808940452</v>
@@ -7834,22 +7834,22 @@
         <v>2329.606666987997</v>
       </c>
       <c r="T46" t="n">
-        <v>2140.391590108836</v>
+        <v>2140.391590108835</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.37412322145</v>
+        <v>1882.374123221449</v>
       </c>
       <c r="V46" t="n">
-        <v>1658.756076314201</v>
+        <v>1658.7560763142</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.405347575878</v>
+        <v>1400.405347575877</v>
       </c>
       <c r="X46" t="n">
-        <v>1203.482237976498</v>
+        <v>1203.482237976497</v>
       </c>
       <c r="Y46" t="n">
-        <v>1013.756100131607</v>
+        <v>1013.756100131605</v>
       </c>
     </row>
   </sheetData>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>382.9611177531189</v>
       </c>
       <c r="G11" t="n">
         <v>410.4516584286806</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.45466308986806</v>
+        <v>23.45466308986801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.47610490366297</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4850128494597</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>141.980143059956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8149522846373</v>
       </c>
       <c r="H13" t="n">
-        <v>142.8803136147357</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.0114061981534</v>
+        <v>90.01140619815342</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>79.4513013124317</v>
       </c>
       <c r="S13" t="n">
-        <v>186.0943807595557</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>116.8070447857257</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.45466308986801</v>
+        <v>23.45466308986795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.47610490366291</v>
+        <v>3.802888776607587</v>
       </c>
       <c r="T14" t="n">
-        <v>201.8602508631766</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>111.1460503427014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8149522846372</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8803136147356</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.646371175740668</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.45130131243164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>186.0943807595557</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.6480192037714</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>129.0565728842865</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>74.90978206940167</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.72032801801143</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>171.1044739775253</v>
       </c>
       <c r="U17" t="n">
-        <v>220.2017896952686</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>191.7274258051536</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.64759155593924</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>114.6652711372797</v>
+        <v>114.6652711372798</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.64759155594115</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.978064777829</v>
+        <v>351.9780647778292</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.85383500485123</v>
+        <v>10.85383500484996</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.0762032962858</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>100.0572333807195</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.25562931250195</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.23665939693256</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.826094830903457e-12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.63331397559703</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>15.63331397559977</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.63331397559651</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.63331397559848</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>15.63331397559707</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.63331397559769</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.63331397559644</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>15.63331397559756</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.63331397559798</v>
+        <v>15.6333139755981</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.63331397559768</v>
+        <v>15.63331397559655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>15.63331397559684</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>15.63331397559798</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>15.63331397559762</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.63331397560006</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766991.4533045893</v>
+        <v>766991.4533045895</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766991.4533045893</v>
+        <v>766991.4533045895</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822073.9741806518</v>
+        <v>822073.9741806521</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855211.9457823742</v>
+        <v>855211.9457823741</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855211.9457823742</v>
+        <v>855211.9457823741</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855211.9457823742</v>
+        <v>855211.9457823741</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855211.9457823741</v>
+        <v>855211.9457823742</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855211.9457823741</v>
+        <v>855211.9457823742</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855211.9457823742</v>
+        <v>855211.9457823741</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
-        <v>532583.4029553625</v>
+        <v>532583.4029553628</v>
       </c>
       <c r="F2" t="n">
-        <v>532583.4029553625</v>
+        <v>532583.4029553626</v>
       </c>
       <c r="G2" t="n">
-        <v>571544.2104042849</v>
+        <v>571544.2104042852</v>
       </c>
       <c r="H2" t="n">
-        <v>571544.210404285</v>
+        <v>571544.2104042852</v>
       </c>
       <c r="I2" t="n">
         <v>594983.2634884303</v>
@@ -26338,22 +26338,22 @@
         <v>594983.2634884303</v>
       </c>
       <c r="K2" t="n">
-        <v>594983.2634884302</v>
+        <v>594983.2634884304</v>
       </c>
       <c r="L2" t="n">
-        <v>594983.2634884304</v>
+        <v>594983.2634884303</v>
       </c>
       <c r="M2" t="n">
-        <v>594983.2634884303</v>
+        <v>594983.2634884305</v>
       </c>
       <c r="N2" t="n">
         <v>594983.2634884304</v>
       </c>
       <c r="O2" t="n">
-        <v>594983.2634884303</v>
+        <v>594983.2634884304</v>
       </c>
       <c r="P2" t="n">
-        <v>594983.2634884301</v>
+        <v>594983.2634884302</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>87233.5160751323</v>
       </c>
       <c r="E3" t="n">
-        <v>844505.5679599871</v>
+        <v>844505.567959988</v>
       </c>
       <c r="F3" t="n">
         <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>24604.62150852136</v>
+        <v>24604.62150852113</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>79699.29337711843</v>
+        <v>79699.29337711801</v>
       </c>
       <c r="J3" t="n">
-        <v>3639.907031011862</v>
+        <v>3639.907031011744</v>
       </c>
       <c r="K3" t="n">
-        <v>9235.220671895018</v>
+        <v>9235.220671895064</v>
       </c>
       <c r="L3" t="n">
-        <v>40376.65864869615</v>
+        <v>40376.65864869617</v>
       </c>
       <c r="M3" t="n">
-        <v>214958.2370207242</v>
+        <v>214958.2370207244</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351125.3655844587</v>
+        <v>351125.3655844588</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26424,40 +26424,40 @@
         <v>305279.4906303398</v>
       </c>
       <c r="E4" t="n">
+        <v>14724.10926068437</v>
+      </c>
+      <c r="F4" t="n">
         <v>14724.10926068441</v>
       </c>
-      <c r="F4" t="n">
-        <v>14724.10926068445</v>
-      </c>
       <c r="G4" t="n">
-        <v>45472.51613784247</v>
+        <v>45472.51613784235</v>
       </c>
       <c r="H4" t="n">
-        <v>45472.51613784247</v>
+        <v>45472.51613784236</v>
       </c>
       <c r="I4" t="n">
+        <v>44999.08993295211</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44999.08993295215</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44999.08993295216</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44999.08993295215</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44999.08993295216</v>
+      </c>
+      <c r="N4" t="n">
         <v>44999.08993295221</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>44999.08993295221</v>
       </c>
-      <c r="K4" t="n">
-        <v>44999.08993295215</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44999.08993295221</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44999.08993295215</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44999.08993295215</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44999.08993295215</v>
-      </c>
       <c r="P4" t="n">
-        <v>44999.08993295215</v>
+        <v>44999.08993295209</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>85567.46642610371</v>
+        <v>85567.46642610377</v>
       </c>
       <c r="F5" t="n">
-        <v>85567.46642610371</v>
+        <v>85567.46642610378</v>
       </c>
       <c r="G5" t="n">
-        <v>88153.07383310355</v>
+        <v>88153.07383310361</v>
       </c>
       <c r="H5" t="n">
-        <v>88153.07383310357</v>
+        <v>88153.07383310361</v>
       </c>
       <c r="I5" t="n">
-        <v>95269.21044427789</v>
+        <v>95269.21044427791</v>
       </c>
       <c r="J5" t="n">
         <v>95269.21044427792</v>
@@ -26497,19 +26497,19 @@
         <v>95269.21044427792</v>
       </c>
       <c r="L5" t="n">
-        <v>95269.21044427789</v>
+        <v>95269.21044427792</v>
       </c>
       <c r="M5" t="n">
         <v>95269.21044427792</v>
       </c>
       <c r="N5" t="n">
-        <v>95269.21044427792</v>
+        <v>95269.21044427789</v>
       </c>
       <c r="O5" t="n">
         <v>95269.21044427792</v>
       </c>
       <c r="P5" t="n">
-        <v>95269.21044427792</v>
+        <v>95269.21044427791</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-135984.2525971394</v>
       </c>
       <c r="C6" t="n">
-        <v>158809.8062764389</v>
+        <v>158809.8062764388</v>
       </c>
       <c r="D6" t="n">
         <v>151918.9033344098</v>
       </c>
       <c r="E6" t="n">
-        <v>-412213.7406914128</v>
+        <v>-412429.8506231245</v>
       </c>
       <c r="F6" t="n">
-        <v>432291.8272685743</v>
+        <v>432075.7173368632</v>
       </c>
       <c r="G6" t="n">
-        <v>413313.9989248175</v>
+        <v>413232.2366049998</v>
       </c>
       <c r="H6" t="n">
-        <v>437918.620433339</v>
+        <v>437836.8581135209</v>
       </c>
       <c r="I6" t="n">
-        <v>375015.6697340818</v>
+        <v>375014.7317352437</v>
       </c>
       <c r="J6" t="n">
-        <v>451075.0560801883</v>
+        <v>451074.1180813499</v>
       </c>
       <c r="K6" t="n">
-        <v>445479.742439305</v>
+        <v>445478.8044404667</v>
       </c>
       <c r="L6" t="n">
-        <v>414338.3044625042</v>
+        <v>414337.3664636656</v>
       </c>
       <c r="M6" t="n">
-        <v>239756.726090476</v>
+        <v>239755.7880916376</v>
       </c>
       <c r="N6" t="n">
-        <v>454714.9631112003</v>
+        <v>454714.0251123618</v>
       </c>
       <c r="O6" t="n">
-        <v>454714.9631112002</v>
+        <v>454714.0251123616</v>
       </c>
       <c r="P6" t="n">
-        <v>454714.9631112</v>
+        <v>454714.0251123616</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H2" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I2" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="J2" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="K2" t="n">
         <v>30.75577688565147</v>
       </c>
       <c r="L2" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="M2" t="n">
         <v>30.75577688565147</v>
       </c>
       <c r="N2" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="O2" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="P2" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1206.705922755561</v>
+        <v>1206.705922755562</v>
       </c>
       <c r="F3" t="n">
-        <v>1206.705922755561</v>
+        <v>1206.705922755562</v>
       </c>
       <c r="G3" t="n">
         <v>1206.705922755562</v>
@@ -26796,16 +26796,16 @@
         <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>974.6920610202709</v>
+        <v>974.6920610202718</v>
       </c>
       <c r="F4" t="n">
-        <v>974.6920610202709</v>
+        <v>974.6920610202718</v>
       </c>
       <c r="G4" t="n">
-        <v>974.6920610202709</v>
+        <v>974.6920610202718</v>
       </c>
       <c r="H4" t="n">
-        <v>974.6920610202711</v>
+        <v>974.6920610202718</v>
       </c>
       <c r="I4" t="n">
         <v>1065.240336292715</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>79.25580793093411</v>
       </c>
       <c r="E3" t="n">
-        <v>730.5901715570593</v>
+        <v>730.59017155706</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73.88997589952942</v>
+        <v>73.88997589952896</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>62.31765309779897</v>
       </c>
       <c r="E4" t="n">
-        <v>862.5794008953474</v>
+        <v>862.5794008953483</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,25 +27030,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>90.5482752724439</v>
+        <v>90.54827527244368</v>
       </c>
       <c r="J4" t="n">
-        <v>13.91167781799645</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="K4" t="n">
         <v>35.88332920912863</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779851</v>
+        <v>62.31765309779897</v>
       </c>
       <c r="M4" t="n">
-        <v>862.5794008953478</v>
+        <v>862.5794008953483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>62.31765309779897</v>
       </c>
       <c r="M4" t="n">
-        <v>862.5794008953474</v>
+        <v>862.5794008953483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27406,7 +27406,7 @@
         <v>43.14184109502801</v>
       </c>
       <c r="L2" t="n">
-        <v>5.570282382615591</v>
+        <v>16.24676181371521</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,7 +27418,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>31.19687248205148</v>
+        <v>20.52039305095186</v>
       </c>
       <c r="Q2" t="n">
         <v>72.08689200502397</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>145.3916746333101</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,13 +27476,13 @@
         <v>105.0472416755655</v>
       </c>
       <c r="I3" t="n">
-        <v>59.98518442391696</v>
+        <v>73.89686224191296</v>
       </c>
       <c r="J3" t="n">
-        <v>42.60756948217988</v>
+        <v>56.51924730017588</v>
       </c>
       <c r="K3" t="n">
-        <v>3.744450672351478</v>
+        <v>3.744450672351476</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>44.97475894826799</v>
       </c>
       <c r="R3" t="n">
-        <v>87.21529185098389</v>
+        <v>85.55701985507878</v>
       </c>
       <c r="S3" t="n">
         <v>157.8584491031374</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>191.7710179593084</v>
       </c>
     </row>
     <row r="4">
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0810387145868</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>363.9123136306533</v>
+        <v>383.7388905389833</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>82.68107178521765</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27713,10 +27713,10 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.33727340070169</v>
+        <v>57.29035016530649</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,16 +27737,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.21447957606767</v>
+        <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
         <v>225.8852226550407</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="7">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>300.6284025949491</v>
       </c>
       <c r="F8" t="n">
         <v>294.7633856167878</v>
@@ -27871,7 +27871,7 @@
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410439</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.35315165846211</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>165.4040387101213</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>305.1886416676178</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.09559288881302</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112502</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>83.9242348401676</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
         <v>113.7613470855986</v>
       </c>
       <c r="V9" t="n">
-        <v>225.403907776027</v>
+        <v>120.6879270245017</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>116.2807129412662</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.2066026931337</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1324099710516</v>
+        <v>163.5070324822481</v>
       </c>
       <c r="H10" t="n">
         <v>154.5937101357652</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="C17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="D17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="E17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="F17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="G17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I17" t="n">
-        <v>23.45466308986801</v>
+        <v>23.45466308986795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="T17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="U17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="V17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="W17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="X17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Y17" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="C19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="D19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="E19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="F19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="G19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="J19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="K19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="L19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="M19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="N19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="O19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="P19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="R19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="S19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="T19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="U19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="V19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="W19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="X19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="C20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="D20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="E20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="F20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="G20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I20" t="n">
-        <v>23.45466308986801</v>
+        <v>23.45466308986795</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="T20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="U20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="V20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="W20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="X20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="C22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="D22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="E22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="F22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="G22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="J22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="K22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="L22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="M22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="N22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="O22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="P22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="R22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="S22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="T22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="U22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="V22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="W22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="X22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="C23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="D23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="E23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="F23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="G23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I23" t="n">
         <v>12.00283074467561</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="T23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="U23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="V23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="W23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="X23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="C25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="D25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="E25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="F25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="G25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="H25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="I25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="J25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="K25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="L25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="M25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="N25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="O25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="P25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="R25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="S25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="T25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="U25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="V25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="W25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="X25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.75577688565153</v>
+        <v>30.75577688565141</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="C26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="D26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="E26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="F26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="G26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="H26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="I26" t="n">
         <v>12.00283074467561</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="T26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="U26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="V26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="W26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="X26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="Y26" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="C28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="D28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="E28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="F28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="G28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="H28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="I28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="J28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="K28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="L28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="M28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="N28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="O28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="P28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="R28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="S28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="T28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="U28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="V28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="W28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="X28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="C32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="D32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="E32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="F32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="G32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="H32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="I32" t="n">
         <v>12.00283074467561</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="T32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="U32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="V32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="W32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="X32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="C34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="D34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="E34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="F34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="G34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="H34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="I34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="J34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="K34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="L34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="M34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="N34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="O34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="P34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="R34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="S34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="T34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="U34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="V34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="W34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="X34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.75577688565154</v>
+        <v>30.75577688565147</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="C38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="D38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="E38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="F38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="G38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="H38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="I38" t="n">
         <v>12.00283074467561</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="T38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="U38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="V38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="W38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="X38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="C40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="D40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="E40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="F40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="G40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="H40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="I40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="J40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="K40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="L40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="M40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="N40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="O40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="P40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="R40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="S40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="T40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="U40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="V40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="W40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="X40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="C41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="D41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="E41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="F41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="G41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="H41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="I41" t="n">
         <v>12.00283074467561</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="T41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="U41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="V41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="W41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="X41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="C43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="D43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="E43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="F43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="G43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="H43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="I43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="J43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="K43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="L43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="M43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="N43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="O43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="P43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="R43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="S43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="T43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="U43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="V43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="W43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="X43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.75577688565147</v>
+        <v>30.75577688565154</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="C44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="D44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="E44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="F44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="G44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="H44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="I44" t="n">
         <v>12.00283074467561</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="T44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="U44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="V44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="W44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="X44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="C46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="D46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="E46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="F46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="G46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="H46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="I46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="J46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="K46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="L46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="M46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="N46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="O46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="P46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="R46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="S46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="T46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="U46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="V46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="W46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="X46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.75577688565147</v>
+        <v>30.7557768856514</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>120.1853104840115</v>
       </c>
       <c r="L3" t="n">
-        <v>143.7530531785868</v>
+        <v>152.4660575978702</v>
       </c>
       <c r="M3" t="n">
         <v>156.0457117400143</v>
@@ -31142,7 +31142,7 @@
         <v>145.2533899013293</v>
       </c>
       <c r="O3" t="n">
-        <v>156.5079222624404</v>
+        <v>147.794917843157</v>
       </c>
       <c r="P3" t="n">
         <v>142.1253238409673</v>
@@ -31616,10 +31616,10 @@
         <v>243.4543722082569</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628787</v>
+        <v>189.3752746148962</v>
       </c>
       <c r="P9" t="n">
-        <v>141.274108769757</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.851079086454515</v>
+        <v>4.851079086454518</v>
       </c>
       <c r="H11" t="n">
-        <v>49.68111369415231</v>
+        <v>49.68111369415234</v>
       </c>
       <c r="I11" t="n">
-        <v>187.0212264805378</v>
+        <v>187.021226480538</v>
       </c>
       <c r="J11" t="n">
-        <v>411.7292736139693</v>
+        <v>411.7292736139695</v>
       </c>
       <c r="K11" t="n">
-        <v>617.075451343589</v>
+        <v>617.0754513435893</v>
       </c>
       <c r="L11" t="n">
-        <v>765.5366629356715</v>
+        <v>765.5366629356719</v>
       </c>
       <c r="M11" t="n">
-        <v>851.807040639407</v>
+        <v>851.8070406394074</v>
       </c>
       <c r="N11" t="n">
-        <v>865.5901690937959</v>
+        <v>865.5901690937964</v>
       </c>
       <c r="O11" t="n">
-        <v>817.3522514278637</v>
+        <v>817.3522514278642</v>
       </c>
       <c r="P11" t="n">
-        <v>697.5912364810179</v>
+        <v>697.5912364810182</v>
       </c>
       <c r="Q11" t="n">
-        <v>523.8619666973653</v>
+        <v>523.8619666973657</v>
       </c>
       <c r="R11" t="n">
-        <v>304.7265966644987</v>
+        <v>304.7265966644989</v>
       </c>
       <c r="S11" t="n">
         <v>110.5439646825824</v>
       </c>
       <c r="T11" t="n">
-        <v>21.23559870095465</v>
+        <v>21.23559870095466</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3880863269163611</v>
+        <v>0.3880863269163613</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.595556135738378</v>
+        <v>2.595556135738379</v>
       </c>
       <c r="H12" t="n">
-        <v>25.06760794252591</v>
+        <v>25.06760794252593</v>
       </c>
       <c r="I12" t="n">
-        <v>89.36454239274678</v>
+        <v>89.36454239274683</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2231347365807</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>419.125395831052</v>
+        <v>323.220070294466</v>
       </c>
       <c r="L12" t="n">
-        <v>563.5658179812649</v>
+        <v>563.5658179812652</v>
       </c>
       <c r="M12" t="n">
-        <v>657.6547279017809</v>
+        <v>657.6547279017813</v>
       </c>
       <c r="N12" t="n">
-        <v>675.0608916366231</v>
+        <v>675.0608916366234</v>
       </c>
       <c r="O12" t="n">
-        <v>211.9193085535145</v>
+        <v>617.5488319973678</v>
       </c>
       <c r="P12" t="n">
-        <v>495.6373817446381</v>
+        <v>495.6373817446384</v>
       </c>
       <c r="Q12" t="n">
-        <v>331.3204639233761</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.21131681952641</v>
+        <v>48.21131681952644</v>
       </c>
       <c r="T12" t="n">
-        <v>10.46191266992793</v>
+        <v>10.46191266992794</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1707602720880512</v>
+        <v>0.1707602720880513</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.176027073821504</v>
+        <v>2.176027073821505</v>
       </c>
       <c r="H13" t="n">
-        <v>19.34685889270393</v>
+        <v>19.34685889270394</v>
       </c>
       <c r="I13" t="n">
-        <v>65.43906872910489</v>
+        <v>65.43906872910492</v>
       </c>
       <c r="J13" t="n">
-        <v>153.8451141191803</v>
+        <v>153.8451141191804</v>
       </c>
       <c r="K13" t="n">
-        <v>252.8147818494438</v>
+        <v>252.8147818494439</v>
       </c>
       <c r="L13" t="n">
-        <v>323.5158796843353</v>
+        <v>323.5158796843355</v>
       </c>
       <c r="M13" t="n">
-        <v>341.1021348536744</v>
+        <v>341.1021348536746</v>
       </c>
       <c r="N13" t="n">
-        <v>332.9914884876127</v>
+        <v>332.991488487613</v>
       </c>
       <c r="O13" t="n">
-        <v>307.571535852516</v>
+        <v>307.5715358525161</v>
       </c>
       <c r="P13" t="n">
-        <v>263.1805835465571</v>
+        <v>263.1805835465572</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.2125943360898</v>
+        <v>182.2125943360899</v>
       </c>
       <c r="R13" t="n">
-        <v>97.84209006473779</v>
+        <v>97.84209006473785</v>
       </c>
       <c r="S13" t="n">
-        <v>37.92221727741656</v>
+        <v>37.92221727741659</v>
       </c>
       <c r="T13" t="n">
-        <v>9.297570224510061</v>
+        <v>9.297570224510066</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1186923858448094</v>
+        <v>0.1186923858448095</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.851079086454515</v>
+        <v>4.851079086454518</v>
       </c>
       <c r="H14" t="n">
-        <v>49.68111369415231</v>
+        <v>49.68111369415234</v>
       </c>
       <c r="I14" t="n">
-        <v>187.0212264805378</v>
+        <v>187.021226480538</v>
       </c>
       <c r="J14" t="n">
-        <v>411.7292736139693</v>
+        <v>411.7292736139695</v>
       </c>
       <c r="K14" t="n">
-        <v>617.075451343589</v>
+        <v>617.0754513435893</v>
       </c>
       <c r="L14" t="n">
-        <v>765.5366629356715</v>
+        <v>765.5366629356719</v>
       </c>
       <c r="M14" t="n">
-        <v>851.807040639407</v>
+        <v>851.8070406394074</v>
       </c>
       <c r="N14" t="n">
-        <v>865.5901690937959</v>
+        <v>865.5901690937964</v>
       </c>
       <c r="O14" t="n">
-        <v>817.3522514278637</v>
+        <v>817.3522514278642</v>
       </c>
       <c r="P14" t="n">
-        <v>697.5912364810179</v>
+        <v>697.5912364810182</v>
       </c>
       <c r="Q14" t="n">
-        <v>523.8619666973653</v>
+        <v>523.8619666973657</v>
       </c>
       <c r="R14" t="n">
-        <v>304.7265966644987</v>
+        <v>304.7265966644989</v>
       </c>
       <c r="S14" t="n">
         <v>110.5439646825824</v>
       </c>
       <c r="T14" t="n">
-        <v>21.23559870095465</v>
+        <v>21.23559870095466</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3880863269163611</v>
+        <v>0.3880863269163613</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.595556135738378</v>
+        <v>2.595556135738379</v>
       </c>
       <c r="H15" t="n">
-        <v>25.06760794252591</v>
+        <v>25.06760794252593</v>
       </c>
       <c r="I15" t="n">
-        <v>89.36454239274678</v>
+        <v>89.36454239274683</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>245.2231347365808</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>419.1253958310522</v>
       </c>
       <c r="L15" t="n">
-        <v>563.5658179812649</v>
+        <v>563.5658179812652</v>
       </c>
       <c r="M15" t="n">
-        <v>657.6547279017809</v>
+        <v>657.6547279017813</v>
       </c>
       <c r="N15" t="n">
-        <v>675.0608916366231</v>
+        <v>675.0608916366234</v>
       </c>
       <c r="O15" t="n">
-        <v>617.5488319973674</v>
+        <v>573.5822828838209</v>
       </c>
       <c r="P15" t="n">
-        <v>495.6373817446381</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>325.3604054061306</v>
+        <v>331.3204639233763</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>48.21131681952641</v>
+        <v>48.21131681952644</v>
       </c>
       <c r="T15" t="n">
-        <v>10.46191266992793</v>
+        <v>10.46191266992794</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1707602720880512</v>
+        <v>0.1707602720880513</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.176027073821504</v>
+        <v>2.176027073821505</v>
       </c>
       <c r="H16" t="n">
-        <v>19.34685889270393</v>
+        <v>19.34685889270394</v>
       </c>
       <c r="I16" t="n">
-        <v>65.43906872910489</v>
+        <v>65.43906872910492</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8451141191803</v>
+        <v>153.8451141191804</v>
       </c>
       <c r="K16" t="n">
-        <v>252.8147818494438</v>
+        <v>252.8147818494439</v>
       </c>
       <c r="L16" t="n">
-        <v>323.5158796843353</v>
+        <v>323.5158796843355</v>
       </c>
       <c r="M16" t="n">
-        <v>341.1021348536744</v>
+        <v>341.1021348536746</v>
       </c>
       <c r="N16" t="n">
-        <v>332.9914884876127</v>
+        <v>332.991488487613</v>
       </c>
       <c r="O16" t="n">
-        <v>307.571535852516</v>
+        <v>307.5715358525161</v>
       </c>
       <c r="P16" t="n">
-        <v>263.1805835465571</v>
+        <v>263.1805835465572</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.2125943360898</v>
+        <v>182.2125943360899</v>
       </c>
       <c r="R16" t="n">
-        <v>97.84209006473779</v>
+        <v>97.84209006473785</v>
       </c>
       <c r="S16" t="n">
-        <v>37.92221727741656</v>
+        <v>37.92221727741659</v>
       </c>
       <c r="T16" t="n">
-        <v>9.297570224510061</v>
+        <v>9.297570224510066</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1186923858448094</v>
+        <v>0.1186923858448095</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.851079086454516</v>
+        <v>4.851079086454518</v>
       </c>
       <c r="H17" t="n">
-        <v>49.68111369415232</v>
+        <v>49.68111369415234</v>
       </c>
       <c r="I17" t="n">
-        <v>187.0212264805379</v>
+        <v>187.021226480538</v>
       </c>
       <c r="J17" t="n">
-        <v>411.7292736139693</v>
+        <v>411.7292736139695</v>
       </c>
       <c r="K17" t="n">
-        <v>617.0754513435891</v>
+        <v>617.0754513435893</v>
       </c>
       <c r="L17" t="n">
-        <v>765.5366629356716</v>
+        <v>765.5366629356719</v>
       </c>
       <c r="M17" t="n">
-        <v>851.8070406394071</v>
+        <v>851.8070406394074</v>
       </c>
       <c r="N17" t="n">
-        <v>865.590169093796</v>
+        <v>865.5901690937964</v>
       </c>
       <c r="O17" t="n">
-        <v>817.352251427864</v>
+        <v>817.3522514278642</v>
       </c>
       <c r="P17" t="n">
-        <v>697.591236481018</v>
+        <v>697.5912364810182</v>
       </c>
       <c r="Q17" t="n">
-        <v>523.8619666973655</v>
+        <v>523.8619666973657</v>
       </c>
       <c r="R17" t="n">
-        <v>304.7265966644987</v>
+        <v>304.7265966644989</v>
       </c>
       <c r="S17" t="n">
         <v>110.5439646825824</v>
       </c>
       <c r="T17" t="n">
-        <v>21.23559870095465</v>
+        <v>21.23559870095466</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3880863269163612</v>
+        <v>0.3880863269163613</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.595556135738378</v>
+        <v>2.595556135738379</v>
       </c>
       <c r="H18" t="n">
-        <v>25.06760794252592</v>
+        <v>25.06760794252593</v>
       </c>
       <c r="I18" t="n">
-        <v>89.3645423927468</v>
+        <v>89.36454239274683</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>245.2231347365808</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>419.1253958310522</v>
       </c>
       <c r="L18" t="n">
-        <v>557.6057594640184</v>
+        <v>563.5658179812652</v>
       </c>
       <c r="M18" t="n">
-        <v>657.654727901781</v>
+        <v>657.6547279017813</v>
       </c>
       <c r="N18" t="n">
-        <v>675.0608916366232</v>
+        <v>675.0608916366234</v>
       </c>
       <c r="O18" t="n">
-        <v>617.5488319973675</v>
+        <v>211.9193085535128</v>
       </c>
       <c r="P18" t="n">
-        <v>495.6373817446382</v>
+        <v>495.6373817446384</v>
       </c>
       <c r="Q18" t="n">
-        <v>331.3204639233762</v>
+        <v>331.3204639233763</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>48.21131681952642</v>
+        <v>48.21131681952644</v>
       </c>
       <c r="T18" t="n">
-        <v>10.46191266992793</v>
+        <v>10.46191266992794</v>
       </c>
       <c r="U18" t="n">
         <v>0.1707602720880513</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.176027073821504</v>
+        <v>2.176027073821505</v>
       </c>
       <c r="H19" t="n">
-        <v>19.34685889270393</v>
+        <v>19.34685889270394</v>
       </c>
       <c r="I19" t="n">
-        <v>65.4390687291049</v>
+        <v>65.43906872910492</v>
       </c>
       <c r="J19" t="n">
         <v>153.8451141191804</v>
       </c>
       <c r="K19" t="n">
-        <v>252.8147818494438</v>
+        <v>252.8147818494439</v>
       </c>
       <c r="L19" t="n">
-        <v>323.5158796843353</v>
+        <v>323.5158796843355</v>
       </c>
       <c r="M19" t="n">
-        <v>341.1021348536745</v>
+        <v>341.1021348536746</v>
       </c>
       <c r="N19" t="n">
-        <v>332.9914884876128</v>
+        <v>332.991488487613</v>
       </c>
       <c r="O19" t="n">
-        <v>307.571535852516</v>
+        <v>307.5715358525161</v>
       </c>
       <c r="P19" t="n">
-        <v>263.1805835465571</v>
+        <v>263.1805835465572</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.2125943360898</v>
+        <v>182.2125943360899</v>
       </c>
       <c r="R19" t="n">
-        <v>97.8420900647378</v>
+        <v>97.84209006473785</v>
       </c>
       <c r="S19" t="n">
-        <v>37.92221727741657</v>
+        <v>37.92221727741659</v>
       </c>
       <c r="T19" t="n">
-        <v>9.297570224510062</v>
+        <v>9.297570224510066</v>
       </c>
       <c r="U19" t="n">
         <v>0.1186923858448095</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.851079086454516</v>
+        <v>4.851079086454518</v>
       </c>
       <c r="H20" t="n">
-        <v>49.68111369415232</v>
+        <v>49.68111369415234</v>
       </c>
       <c r="I20" t="n">
-        <v>187.0212264805379</v>
+        <v>187.021226480538</v>
       </c>
       <c r="J20" t="n">
-        <v>411.7292736139693</v>
+        <v>411.7292736139695</v>
       </c>
       <c r="K20" t="n">
-        <v>617.0754513435891</v>
+        <v>617.0754513435893</v>
       </c>
       <c r="L20" t="n">
-        <v>765.5366629356716</v>
+        <v>765.5366629356719</v>
       </c>
       <c r="M20" t="n">
-        <v>851.8070406394071</v>
+        <v>851.8070406394074</v>
       </c>
       <c r="N20" t="n">
-        <v>865.590169093796</v>
+        <v>865.5901690937964</v>
       </c>
       <c r="O20" t="n">
-        <v>817.352251427864</v>
+        <v>817.3522514278642</v>
       </c>
       <c r="P20" t="n">
-        <v>697.591236481018</v>
+        <v>697.5912364810182</v>
       </c>
       <c r="Q20" t="n">
-        <v>523.8619666973655</v>
+        <v>523.8619666973657</v>
       </c>
       <c r="R20" t="n">
-        <v>304.7265966644987</v>
+        <v>304.7265966644989</v>
       </c>
       <c r="S20" t="n">
         <v>110.5439646825824</v>
       </c>
       <c r="T20" t="n">
-        <v>21.23559870095465</v>
+        <v>21.23559870095466</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3880863269163612</v>
+        <v>0.3880863269163613</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.595556135738378</v>
+        <v>2.595556135738379</v>
       </c>
       <c r="H21" t="n">
-        <v>25.06760794252592</v>
+        <v>25.06760794252593</v>
       </c>
       <c r="I21" t="n">
-        <v>89.3645423927468</v>
+        <v>89.36454239274683</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2231347365807</v>
+        <v>245.2231347365808</v>
       </c>
       <c r="K21" t="n">
-        <v>419.1253958310521</v>
+        <v>419.1253958310522</v>
       </c>
       <c r="L21" t="n">
-        <v>563.565817981265</v>
+        <v>563.5658179812652</v>
       </c>
       <c r="M21" t="n">
-        <v>657.654727901781</v>
+        <v>657.6547279017813</v>
       </c>
       <c r="N21" t="n">
-        <v>675.0608916366232</v>
+        <v>460.7700580301231</v>
       </c>
       <c r="O21" t="n">
-        <v>617.5488319973675</v>
+        <v>617.5488319973678</v>
       </c>
       <c r="P21" t="n">
-        <v>281.3465481381394</v>
+        <v>495.6373817446384</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>48.21131681952642</v>
+        <v>48.21131681952644</v>
       </c>
       <c r="T21" t="n">
-        <v>10.46191266992793</v>
+        <v>10.46191266992794</v>
       </c>
       <c r="U21" t="n">
         <v>0.1707602720880513</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.176027073821504</v>
+        <v>2.176027073821505</v>
       </c>
       <c r="H22" t="n">
-        <v>19.34685889270393</v>
+        <v>19.34685889270394</v>
       </c>
       <c r="I22" t="n">
-        <v>65.4390687291049</v>
+        <v>65.43906872910492</v>
       </c>
       <c r="J22" t="n">
         <v>153.8451141191804</v>
       </c>
       <c r="K22" t="n">
-        <v>252.8147818494438</v>
+        <v>252.8147818494439</v>
       </c>
       <c r="L22" t="n">
-        <v>323.5158796843353</v>
+        <v>323.5158796843355</v>
       </c>
       <c r="M22" t="n">
-        <v>341.1021348536745</v>
+        <v>341.1021348536746</v>
       </c>
       <c r="N22" t="n">
-        <v>332.9914884876128</v>
+        <v>332.991488487613</v>
       </c>
       <c r="O22" t="n">
-        <v>307.571535852516</v>
+        <v>307.5715358525161</v>
       </c>
       <c r="P22" t="n">
-        <v>263.1805835465571</v>
+        <v>263.1805835465572</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.2125943360898</v>
+        <v>182.2125943360899</v>
       </c>
       <c r="R22" t="n">
-        <v>97.8420900647378</v>
+        <v>97.84209006473785</v>
       </c>
       <c r="S22" t="n">
-        <v>37.92221727741657</v>
+        <v>37.92221727741659</v>
       </c>
       <c r="T22" t="n">
-        <v>9.297570224510062</v>
+        <v>9.297570224510066</v>
       </c>
       <c r="U22" t="n">
         <v>0.1186923858448095</v>
@@ -32786,13 +32786,13 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>444.7896151017405</v>
       </c>
       <c r="L24" t="n">
-        <v>588.1872726401627</v>
+        <v>598.0745279520783</v>
       </c>
       <c r="M24" t="n">
         <v>697.9247647670246</v>
@@ -32801,13 +32801,13 @@
         <v>716.3967565504552</v>
       </c>
       <c r="O24" t="n">
-        <v>655.3630727768182</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>525.9866437325035</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>202.5119650709601</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,13 +33023,13 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>444.7896151017405</v>
       </c>
       <c r="L27" t="n">
-        <v>588.1872726401627</v>
+        <v>598.0745279520783</v>
       </c>
       <c r="M27" t="n">
         <v>697.9247647670246</v>
@@ -33038,13 +33038,13 @@
         <v>716.3967565504552</v>
       </c>
       <c r="O27" t="n">
-        <v>655.3630727768182</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>525.9866437325035</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>202.5119650709601</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>444.7896151017405</v>
       </c>
       <c r="L30" t="n">
-        <v>351.2204509182682</v>
+        <v>598.0745279520783</v>
       </c>
       <c r="M30" t="n">
         <v>697.9247647670246</v>
@@ -33275,16 +33275,16 @@
         <v>716.3967565504552</v>
       </c>
       <c r="O30" t="n">
-        <v>655.3630727768182</v>
+        <v>597.1386717475561</v>
       </c>
       <c r="P30" t="n">
-        <v>525.9866437325035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>351.6081418345073</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.0199579373724</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.16343047928592</v>
@@ -33497,25 +33497,25 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>444.7896151017405</v>
       </c>
       <c r="L33" t="n">
-        <v>588.1872726401627</v>
+        <v>598.0745279520783</v>
       </c>
       <c r="M33" t="n">
         <v>697.9247647670246</v>
       </c>
       <c r="N33" t="n">
-        <v>716.3967565504552</v>
+        <v>658.172355521193</v>
       </c>
       <c r="O33" t="n">
         <v>655.3630727768182</v>
       </c>
       <c r="P33" t="n">
-        <v>525.9866437325035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>444.7896151017405</v>
       </c>
       <c r="L36" t="n">
         <v>598.0745279520783</v>
@@ -33746,13 +33746,13 @@
         <v>697.9247647670246</v>
       </c>
       <c r="N36" t="n">
-        <v>706.5095012385397</v>
+        <v>716.3967565504552</v>
       </c>
       <c r="O36" t="n">
-        <v>655.3630727768182</v>
+        <v>597.1386717475561</v>
       </c>
       <c r="P36" t="n">
-        <v>525.9866437325035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J39" t="n">
-        <v>202.0144315455428</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K39" t="n">
         <v>444.7896151017405</v>
@@ -33986,7 +33986,7 @@
         <v>716.3967565504552</v>
       </c>
       <c r="O39" t="n">
-        <v>655.3630727768182</v>
+        <v>597.1386717475561</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,7 +34208,7 @@
         <v>94.83658306077798</v>
       </c>
       <c r="J42" t="n">
-        <v>202.0144315455428</v>
+        <v>260.2388325748049</v>
       </c>
       <c r="K42" t="n">
         <v>444.7896151017405</v>
@@ -34220,7 +34220,7 @@
         <v>697.9247647670246</v>
       </c>
       <c r="N42" t="n">
-        <v>716.3967565504552</v>
+        <v>658.172355521193</v>
       </c>
       <c r="O42" t="n">
         <v>655.3630727768182</v>
@@ -34366,7 +34366,7 @@
         <v>198.4730588257303</v>
       </c>
       <c r="J44" t="n">
-        <v>436.9406076521722</v>
+        <v>436.9406076521711</v>
       </c>
       <c r="K44" t="n">
         <v>654.8607057027037</v>
@@ -34448,28 +34448,28 @@
         <v>260.2388325748049</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>444.7896151017405</v>
       </c>
       <c r="L45" t="n">
-        <v>217.8192450101299</v>
+        <v>598.0745279520783</v>
       </c>
       <c r="M45" t="n">
         <v>697.9247647670246</v>
       </c>
       <c r="N45" t="n">
-        <v>716.3967565504552</v>
+        <v>658.172355521193</v>
       </c>
       <c r="O45" t="n">
         <v>655.3630727768182</v>
       </c>
       <c r="P45" t="n">
-        <v>525.9866437325035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>351.6081418345073</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.0199579373724</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.16343047928592</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.198673398712606</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="M3" t="n">
         <v>13.91167781799599</v>
@@ -34790,7 +34790,7 @@
         <v>13.91167781799599</v>
       </c>
       <c r="O3" t="n">
-        <v>13.91167781799599</v>
+        <v>5.198673398712605</v>
       </c>
       <c r="P3" t="n">
         <v>8.150916426637082</v>
@@ -35264,10 +35264,10 @@
         <v>112.1126601249236</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>46.77903017045175</v>
       </c>
       <c r="P9" t="n">
-        <v>7.299701355426773</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>230.683369087283</v>
+        <v>230.6833690872832</v>
       </c>
       <c r="K11" t="n">
-        <v>396.9856002986084</v>
+        <v>396.9856002986087</v>
       </c>
       <c r="L11" t="n">
-        <v>529.7702479656843</v>
+        <v>529.7702479656846</v>
       </c>
       <c r="M11" t="n">
-        <v>621.4608074121343</v>
+        <v>621.4608074121347</v>
       </c>
       <c r="N11" t="n">
-        <v>636.177105497205</v>
+        <v>636.1771054972055</v>
       </c>
       <c r="O11" t="n">
-        <v>587.254040006177</v>
+        <v>587.2540400061774</v>
       </c>
       <c r="P11" t="n">
-        <v>466.3582407257483</v>
+        <v>466.3582407257487</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.5562768229158</v>
+        <v>301.5562768229162</v>
       </c>
       <c r="R11" t="n">
-        <v>89.14105885036656</v>
+        <v>89.14105885036673</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.385508069914</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>281.283956856693</v>
+        <v>185.378631320107</v>
       </c>
       <c r="L12" t="n">
-        <v>425.0114382013907</v>
+        <v>425.0114382013911</v>
       </c>
       <c r="M12" t="n">
-        <v>515.5206939797627</v>
+        <v>515.5206939797629</v>
       </c>
       <c r="N12" t="n">
-        <v>543.7191795532898</v>
+        <v>543.7191795532901</v>
       </c>
       <c r="O12" t="n">
-        <v>69.32306410907003</v>
+        <v>474.9525875529233</v>
       </c>
       <c r="P12" t="n">
-        <v>361.6629743303079</v>
+        <v>361.6629743303081</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.3386898373546</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.48593400250755</v>
+        <v>60.48593400250758</v>
       </c>
       <c r="K13" t="n">
-        <v>230.5452900235609</v>
+        <v>230.545290023561</v>
       </c>
       <c r="L13" t="n">
-        <v>351.1059049446515</v>
+        <v>351.1059049446516</v>
       </c>
       <c r="M13" t="n">
-        <v>380.686011815515</v>
+        <v>380.6860118155152</v>
       </c>
       <c r="N13" t="n">
-        <v>377.1236608668413</v>
+        <v>377.1236608668415</v>
       </c>
       <c r="O13" t="n">
-        <v>332.1566637665557</v>
+        <v>332.1566637665558</v>
       </c>
       <c r="P13" t="n">
         <v>260.4591428114506</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.05055108439539</v>
+        <v>96.05055108439548</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>230.683369087283</v>
+        <v>230.6833690872832</v>
       </c>
       <c r="K14" t="n">
-        <v>396.9856002986084</v>
+        <v>396.9856002986087</v>
       </c>
       <c r="L14" t="n">
-        <v>529.7702479656843</v>
+        <v>529.7702479656846</v>
       </c>
       <c r="M14" t="n">
-        <v>621.4608074121343</v>
+        <v>621.4608074121347</v>
       </c>
       <c r="N14" t="n">
-        <v>636.177105497205</v>
+        <v>636.1771054972055</v>
       </c>
       <c r="O14" t="n">
-        <v>587.254040006177</v>
+        <v>587.2540400061774</v>
       </c>
       <c r="P14" t="n">
-        <v>466.3582407257483</v>
+        <v>466.3582407257487</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.5562768229158</v>
+        <v>301.5562768229162</v>
       </c>
       <c r="R14" t="n">
-        <v>89.14105885036656</v>
+        <v>89.14105885036673</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.3855080699142</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>281.2839568566932</v>
       </c>
       <c r="L15" t="n">
-        <v>425.0114382013907</v>
+        <v>425.0114382013911</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5206939797627</v>
+        <v>515.5206939797629</v>
       </c>
       <c r="N15" t="n">
-        <v>543.7191795532898</v>
+        <v>543.7191795532901</v>
       </c>
       <c r="O15" t="n">
-        <v>474.952587552923</v>
+        <v>430.9860384393765</v>
       </c>
       <c r="P15" t="n">
-        <v>361.6629743303079</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.3786313201091</v>
+        <v>191.3386898373548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.48593400250761</v>
+        <v>60.48593400250763</v>
       </c>
       <c r="K16" t="n">
-        <v>230.545290023561</v>
+        <v>230.5452900235611</v>
       </c>
       <c r="L16" t="n">
-        <v>351.1059049446515</v>
+        <v>351.1059049446516</v>
       </c>
       <c r="M16" t="n">
-        <v>380.686011815515</v>
+        <v>380.6860118155152</v>
       </c>
       <c r="N16" t="n">
-        <v>377.1236608668414</v>
+        <v>377.1236608668415</v>
       </c>
       <c r="O16" t="n">
-        <v>332.1566637665557</v>
+        <v>332.1566637665558</v>
       </c>
       <c r="P16" t="n">
-        <v>260.4591428114506</v>
+        <v>260.4591428114507</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.05055108439539</v>
+        <v>96.05055108439548</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>230.683369087283</v>
+        <v>230.6833690872832</v>
       </c>
       <c r="K17" t="n">
-        <v>396.9856002986085</v>
+        <v>396.9856002986087</v>
       </c>
       <c r="L17" t="n">
-        <v>529.7702479656843</v>
+        <v>529.7702479656846</v>
       </c>
       <c r="M17" t="n">
-        <v>621.4608074121344</v>
+        <v>621.4608074121347</v>
       </c>
       <c r="N17" t="n">
-        <v>636.177105497205</v>
+        <v>636.1771054972055</v>
       </c>
       <c r="O17" t="n">
-        <v>587.2540400061772</v>
+        <v>587.2540400061774</v>
       </c>
       <c r="P17" t="n">
-        <v>466.3582407257484</v>
+        <v>466.3582407257487</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.5562768229159</v>
+        <v>301.5562768229162</v>
       </c>
       <c r="R17" t="n">
-        <v>89.14105885036662</v>
+        <v>89.14105885036673</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>118.3855080699142</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>281.2839568566932</v>
       </c>
       <c r="L18" t="n">
-        <v>419.0513796841443</v>
+        <v>425.0114382013911</v>
       </c>
       <c r="M18" t="n">
-        <v>515.5206939797627</v>
+        <v>515.5206939797629</v>
       </c>
       <c r="N18" t="n">
-        <v>543.7191795532899</v>
+        <v>543.7191795532901</v>
       </c>
       <c r="O18" t="n">
-        <v>474.9525875529231</v>
+        <v>69.32306410906841</v>
       </c>
       <c r="P18" t="n">
-        <v>361.662974330308</v>
+        <v>361.6629743303081</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.3386898373547</v>
+        <v>191.3386898373548</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.2417108881591</v>
+        <v>91.24171088815905</v>
       </c>
       <c r="K19" t="n">
         <v>261.3010669092125</v>
@@ -36051,7 +36051,7 @@
         <v>411.4417887011666</v>
       </c>
       <c r="N19" t="n">
-        <v>407.8794377524929</v>
+        <v>407.879437752493</v>
       </c>
       <c r="O19" t="n">
         <v>362.9124406522072</v>
@@ -36060,7 +36060,7 @@
         <v>291.2149196971021</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.806327970047</v>
+        <v>126.8063279700469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>230.683369087283</v>
+        <v>230.6833690872832</v>
       </c>
       <c r="K20" t="n">
-        <v>396.9856002986085</v>
+        <v>396.9856002986087</v>
       </c>
       <c r="L20" t="n">
-        <v>529.7702479656843</v>
+        <v>529.7702479656846</v>
       </c>
       <c r="M20" t="n">
-        <v>621.4608074121344</v>
+        <v>621.4608074121347</v>
       </c>
       <c r="N20" t="n">
-        <v>636.177105497205</v>
+        <v>636.1771054972055</v>
       </c>
       <c r="O20" t="n">
-        <v>587.2540400061772</v>
+        <v>587.2540400061774</v>
       </c>
       <c r="P20" t="n">
-        <v>466.3582407257484</v>
+        <v>466.3582407257487</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.5562768229159</v>
+        <v>301.5562768229162</v>
       </c>
       <c r="R20" t="n">
-        <v>89.14105885036662</v>
+        <v>89.14105885036673</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.385508069914</v>
+        <v>118.3855080699142</v>
       </c>
       <c r="K21" t="n">
-        <v>281.2839568566931</v>
+        <v>281.2839568566932</v>
       </c>
       <c r="L21" t="n">
-        <v>425.0114382013908</v>
+        <v>425.0114382013911</v>
       </c>
       <c r="M21" t="n">
-        <v>515.5206939797627</v>
+        <v>515.5206939797629</v>
       </c>
       <c r="N21" t="n">
-        <v>543.7191795532899</v>
+        <v>329.4283459467898</v>
       </c>
       <c r="O21" t="n">
-        <v>474.9525875529231</v>
+        <v>474.9525875529233</v>
       </c>
       <c r="P21" t="n">
-        <v>147.3721407238092</v>
+        <v>361.6629743303081</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.2417108881591</v>
+        <v>91.24171088815905</v>
       </c>
       <c r="K22" t="n">
         <v>261.3010669092125</v>
@@ -36288,7 +36288,7 @@
         <v>411.4417887011666</v>
       </c>
       <c r="N22" t="n">
-        <v>407.8794377524929</v>
+        <v>407.879437752493</v>
       </c>
       <c r="O22" t="n">
         <v>362.9124406522072</v>
@@ -36297,7 +36297,7 @@
         <v>291.2149196971021</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.806327970047</v>
+        <v>126.8063279700469</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.9481761273815</v>
       </c>
       <c r="L24" t="n">
-        <v>449.6328928602886</v>
+        <v>459.5201481722041</v>
       </c>
       <c r="M24" t="n">
         <v>555.7907308450062</v>
@@ -36449,13 +36449,13 @@
         <v>585.0550444671219</v>
       </c>
       <c r="O24" t="n">
-        <v>512.7668283323737</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>392.0122363181732</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>62.53019098493854</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.6620771598089</v>
+        <v>100.6620771598088</v>
       </c>
       <c r="K25" t="n">
-        <v>276.781622515704</v>
+        <v>276.7816225157039</v>
       </c>
       <c r="L25" t="n">
-        <v>401.6714632378589</v>
+        <v>401.6714632378587</v>
       </c>
       <c r="M25" t="n">
-        <v>432.328425659127</v>
+        <v>432.3284256591269</v>
       </c>
       <c r="N25" t="n">
-        <v>428.2694371675221</v>
+        <v>428.269437167522</v>
       </c>
       <c r="O25" t="n">
-        <v>381.745905329025</v>
+        <v>381.7459053290249</v>
       </c>
       <c r="P25" t="n">
-        <v>307.3302023096815</v>
+        <v>307.3302023096813</v>
       </c>
       <c r="Q25" t="n">
-        <v>137.9637143308759</v>
+        <v>137.9637143308758</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.9481761273815</v>
       </c>
       <c r="L27" t="n">
-        <v>449.6328928602886</v>
+        <v>459.5201481722041</v>
       </c>
       <c r="M27" t="n">
         <v>555.7907308450062</v>
@@ -36686,13 +36686,13 @@
         <v>585.0550444671219</v>
       </c>
       <c r="O27" t="n">
-        <v>512.7668283323737</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>392.0122363181732</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>62.53019098493854</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>100.6620771598089</v>
       </c>
       <c r="K28" t="n">
-        <v>276.7816225157041</v>
+        <v>276.781622515704</v>
       </c>
       <c r="L28" t="n">
-        <v>401.6714632378589</v>
+        <v>401.6714632378588</v>
       </c>
       <c r="M28" t="n">
         <v>432.328425659127</v>
       </c>
       <c r="N28" t="n">
-        <v>428.2694371675221</v>
+        <v>428.269437167522</v>
       </c>
       <c r="O28" t="n">
-        <v>381.745905329025</v>
+        <v>381.7459053290249</v>
       </c>
       <c r="P28" t="n">
-        <v>307.3302023096815</v>
+        <v>307.3302023096814</v>
       </c>
       <c r="Q28" t="n">
         <v>137.9637143308759</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.9481761273815</v>
       </c>
       <c r="L30" t="n">
-        <v>212.666071138394</v>
+        <v>459.5201481722041</v>
       </c>
       <c r="M30" t="n">
         <v>555.7907308450062</v>
@@ -36923,16 +36923,16 @@
         <v>585.0550444671219</v>
       </c>
       <c r="O30" t="n">
-        <v>512.7668283323737</v>
+        <v>454.5424273031117</v>
       </c>
       <c r="P30" t="n">
-        <v>392.0122363181732</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.6263677484858</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.34045397340847</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.9481761273815</v>
       </c>
       <c r="L33" t="n">
-        <v>449.6328928602886</v>
+        <v>459.5201481722041</v>
       </c>
       <c r="M33" t="n">
         <v>555.7907308450062</v>
       </c>
       <c r="N33" t="n">
-        <v>585.0550444671219</v>
+        <v>526.8306434378597</v>
       </c>
       <c r="O33" t="n">
         <v>512.7668283323737</v>
       </c>
       <c r="P33" t="n">
-        <v>392.0122363181732</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.662077159809</v>
+        <v>100.6620771598089</v>
       </c>
       <c r="K34" t="n">
-        <v>276.7816225157041</v>
+        <v>276.781622515704</v>
       </c>
       <c r="L34" t="n">
-        <v>401.6714632378589</v>
+        <v>401.6714632378588</v>
       </c>
       <c r="M34" t="n">
         <v>432.328425659127</v>
       </c>
       <c r="N34" t="n">
-        <v>428.2694371675221</v>
+        <v>428.269437167522</v>
       </c>
       <c r="O34" t="n">
-        <v>381.745905329025</v>
+        <v>381.7459053290249</v>
       </c>
       <c r="P34" t="n">
-        <v>307.3302023096815</v>
+        <v>307.3302023096814</v>
       </c>
       <c r="Q34" t="n">
         <v>137.9637143308759</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.9481761273815</v>
       </c>
       <c r="L36" t="n">
         <v>459.5201481722041</v>
@@ -37394,13 +37394,13 @@
         <v>555.7907308450062</v>
       </c>
       <c r="N36" t="n">
-        <v>575.1677891552064</v>
+        <v>585.0550444671219</v>
       </c>
       <c r="O36" t="n">
-        <v>512.7668283323737</v>
+        <v>454.5424273031117</v>
       </c>
       <c r="P36" t="n">
-        <v>392.0122363181732</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.17680487887613</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K39" t="n">
         <v>306.9481761273815</v>
@@ -37634,7 +37634,7 @@
         <v>585.0550444671219</v>
       </c>
       <c r="O39" t="n">
-        <v>512.7668283323737</v>
+        <v>454.5424273031117</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>100.6620771598089</v>
       </c>
       <c r="K40" t="n">
-        <v>276.781622515704</v>
+        <v>276.7816225157041</v>
       </c>
       <c r="L40" t="n">
-        <v>401.6714632378588</v>
+        <v>401.6714632378589</v>
       </c>
       <c r="M40" t="n">
         <v>432.328425659127</v>
       </c>
       <c r="N40" t="n">
-        <v>428.269437167522</v>
+        <v>428.2694371675221</v>
       </c>
       <c r="O40" t="n">
-        <v>381.7459053290249</v>
+        <v>381.745905329025</v>
       </c>
       <c r="P40" t="n">
-        <v>307.3302023096814</v>
+        <v>307.3302023096815</v>
       </c>
       <c r="Q40" t="n">
         <v>137.9637143308759</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>75.17680487887613</v>
+        <v>133.4012059081382</v>
       </c>
       <c r="K42" t="n">
         <v>306.9481761273815</v>
@@ -37868,7 +37868,7 @@
         <v>555.7907308450062</v>
       </c>
       <c r="N42" t="n">
-        <v>585.0550444671219</v>
+        <v>526.8306434378597</v>
       </c>
       <c r="O42" t="n">
         <v>512.7668283323737</v>
@@ -37938,22 +37938,22 @@
         <v>100.6620771598089</v>
       </c>
       <c r="K43" t="n">
-        <v>276.781622515704</v>
+        <v>276.7816225157041</v>
       </c>
       <c r="L43" t="n">
-        <v>401.6714632378588</v>
+        <v>401.6714632378589</v>
       </c>
       <c r="M43" t="n">
         <v>432.328425659127</v>
       </c>
       <c r="N43" t="n">
-        <v>428.269437167522</v>
+        <v>428.2694371675221</v>
       </c>
       <c r="O43" t="n">
-        <v>381.7459053290249</v>
+        <v>381.745905329025</v>
       </c>
       <c r="P43" t="n">
-        <v>307.3302023096814</v>
+        <v>307.3302023096815</v>
       </c>
       <c r="Q43" t="n">
         <v>137.9637143308759</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.8947031254858</v>
+        <v>255.8947031254848</v>
       </c>
       <c r="K44" t="n">
         <v>434.7708546577232</v>
@@ -38096,28 +38096,28 @@
         <v>133.4012059081382</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.9481761273815</v>
       </c>
       <c r="L45" t="n">
-        <v>79.26486523025575</v>
+        <v>459.5201481722041</v>
       </c>
       <c r="M45" t="n">
         <v>555.7907308450062</v>
       </c>
       <c r="N45" t="n">
-        <v>585.0550444671219</v>
+        <v>526.8306434378597</v>
       </c>
       <c r="O45" t="n">
         <v>512.7668283323737</v>
       </c>
       <c r="P45" t="n">
-        <v>392.0122363181732</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.6263677484858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.34045397340847</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.6620771598089</v>
+        <v>100.6620771598088</v>
       </c>
       <c r="K46" t="n">
-        <v>276.781622515704</v>
+        <v>276.7816225157039</v>
       </c>
       <c r="L46" t="n">
-        <v>401.6714632378588</v>
+        <v>401.6714632378587</v>
       </c>
       <c r="M46" t="n">
-        <v>432.328425659127</v>
+        <v>432.3284256591269</v>
       </c>
       <c r="N46" t="n">
         <v>428.269437167522</v>
@@ -38190,10 +38190,10 @@
         <v>381.7459053290249</v>
       </c>
       <c r="P46" t="n">
-        <v>307.3302023096814</v>
+        <v>307.3302023096813</v>
       </c>
       <c r="Q46" t="n">
-        <v>137.9637143308759</v>
+        <v>137.9637143308758</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
